--- a/data/trans_orig/P19D-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19D-Provincia-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4406</v>
+        <v>4319</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004549061969407443</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02300870341767339</v>
+        <v>0.02255286993425475</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4791</v>
+        <v>4665</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002218182155048368</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01220044233821008</v>
+        <v>0.01187804507758688</v>
       </c>
     </row>
     <row r="5">
@@ -807,19 +807,19 @@
         <v>175533</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>165914</v>
+        <v>166299</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>181980</v>
+        <v>182206</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9166552537688754</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8664237664421884</v>
+        <v>0.868432588024397</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9503208772464811</v>
+        <v>0.9515015909046488</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>178</v>
@@ -828,19 +828,19 @@
         <v>187863</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>178371</v>
+        <v>179236</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>194070</v>
+        <v>194090</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9336088740666094</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.886439796086682</v>
+        <v>0.89073524013215</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9644563948714232</v>
+        <v>0.9645543034702174</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>353</v>
@@ -849,19 +849,19 @@
         <v>363397</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>350808</v>
+        <v>351008</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>372725</v>
+        <v>372482</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9253420669180583</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8932862166347874</v>
+        <v>0.893796161727907</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9490946501468405</v>
+        <v>0.9484774395115085</v>
       </c>
     </row>
     <row r="6">
@@ -878,19 +878,19 @@
         <v>6908</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2735</v>
+        <v>2807</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13150</v>
+        <v>14267</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03607655042613316</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01428478358316567</v>
+        <v>0.01465880901824099</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06867137658345514</v>
+        <v>0.07450396876767648</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -902,16 +902,16 @@
         <v>1004</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9566</v>
+        <v>8542</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01544088963303997</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.004989751953955866</v>
+        <v>0.004988410557860837</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04753885389181736</v>
+        <v>0.0424497233782174</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>10</v>
@@ -920,19 +920,19 @@
         <v>10015</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>4968</v>
+        <v>4991</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>18054</v>
+        <v>17593</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02550310791819404</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01265038684426896</v>
+        <v>0.012710147540759</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04597110307012735</v>
+        <v>0.04479923890477944</v>
       </c>
     </row>
     <row r="7">
@@ -949,19 +949,19 @@
         <v>8180</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3681</v>
+        <v>3831</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16205</v>
+        <v>16508</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04271913383558408</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01922089552278252</v>
+        <v>0.02000770691653178</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08462695614984228</v>
+        <v>0.08620800172480533</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -970,19 +970,19 @@
         <v>10252</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4825</v>
+        <v>5181</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17724</v>
+        <v>18199</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05095023630035064</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02397758965265906</v>
+        <v>0.02574903754970302</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08808135897068588</v>
+        <v>0.09044326615841511</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>18</v>
@@ -991,19 +991,19 @@
         <v>18433</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10598</v>
+        <v>11470</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>28569</v>
+        <v>28938</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04693664300869933</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02698543385954446</v>
+        <v>0.02920685382860247</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07274726423994692</v>
+        <v>0.07368652649857357</v>
       </c>
     </row>
     <row r="8">
@@ -1142,19 +1142,19 @@
         <v>358930</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>343874</v>
+        <v>343900</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>372057</v>
+        <v>371807</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8759596298352013</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8392176469326574</v>
+        <v>0.8392798964352338</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9079964211694058</v>
+        <v>0.9073860643273074</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>389</v>
@@ -1163,19 +1163,19 @@
         <v>392628</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>378724</v>
+        <v>378855</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>404128</v>
+        <v>404087</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8899080291221148</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8583934442792434</v>
+        <v>0.8586896625711417</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9159731408299889</v>
+        <v>0.9158799050364783</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>726</v>
@@ -1184,19 +1184,19 @@
         <v>751558</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>731228</v>
+        <v>731814</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>769655</v>
+        <v>769403</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8831915447438838</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8593007673430639</v>
+        <v>0.8599889206128251</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9044584080009073</v>
+        <v>0.9041617504016768</v>
       </c>
     </row>
     <row r="11">
@@ -1213,19 +1213,19 @@
         <v>5521</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1696</v>
+        <v>1720</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13541</v>
+        <v>13655</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01347415113151482</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.004139624875316983</v>
+        <v>0.004196855563239226</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03304578256352879</v>
+        <v>0.03332517755214977</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>7</v>
@@ -1234,19 +1234,19 @@
         <v>7158</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2952</v>
+        <v>2948</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>14646</v>
+        <v>13354</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01622279499073148</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.006691448768268059</v>
+        <v>0.006681899518112451</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03319516588679507</v>
+        <v>0.03026797026788338</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>11</v>
@@ -1255,19 +1255,19 @@
         <v>12679</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>6227</v>
+        <v>6664</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>22365</v>
+        <v>21408</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01489925791941538</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.007317352437615949</v>
+        <v>0.00783148151427236</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02628259458443752</v>
+        <v>0.02515784842250595</v>
       </c>
     </row>
     <row r="12">
@@ -1284,19 +1284,19 @@
         <v>45305</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>33566</v>
+        <v>33720</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>60139</v>
+        <v>59507</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1105662190332839</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08191603476343223</v>
+        <v>0.08229271277299538</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1467667524040839</v>
+        <v>0.1452246093779684</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>42</v>
@@ -1305,19 +1305,19 @@
         <v>41415</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>31259</v>
+        <v>30891</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>56025</v>
+        <v>54632</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09386917588715381</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07084927746439112</v>
+        <v>0.0700156050204499</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1269834768396367</v>
+        <v>0.1238246298744001</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>85</v>
@@ -1326,19 +1326,19 @@
         <v>86720</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>71009</v>
+        <v>70392</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>106580</v>
+        <v>105529</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1019091973367008</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08344647608132426</v>
+        <v>0.08272071030868082</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1252473627515565</v>
+        <v>0.1240124132821734</v>
       </c>
     </row>
     <row r="13">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7315</v>
+        <v>7230</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.007373972305011973</v>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02532806491224071</v>
+        <v>0.02503244231767237</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7446</v>
+        <v>6709</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.004053823445670296</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01417414401596788</v>
+        <v>0.01277088281836477</v>
       </c>
     </row>
     <row r="15">
@@ -1493,19 +1493,19 @@
         <v>213885</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>204712</v>
+        <v>203038</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>222033</v>
+        <v>221649</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.9042364245614704</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8654548649182975</v>
+        <v>0.8583791221336361</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9386805282233862</v>
+        <v>0.9370587145710865</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>263</v>
@@ -1514,19 +1514,19 @@
         <v>264221</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>254778</v>
+        <v>254728</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>272391</v>
+        <v>272787</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.9148750096714147</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.8821758870205455</v>
+        <v>0.8820047065935601</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.9431625364482742</v>
+        <v>0.9445348655408708</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>471</v>
@@ -1535,19 +1535,19 @@
         <v>478107</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>464863</v>
+        <v>463162</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>489192</v>
+        <v>488781</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.910084961003374</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.8848761582331975</v>
+        <v>0.8816374446727422</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.9311864419767496</v>
+        <v>0.9304039585644249</v>
       </c>
     </row>
     <row r="16">
@@ -1564,19 +1564,19 @@
         <v>6581</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2789</v>
+        <v>2773</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12534</v>
+        <v>13293</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02782337491460016</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01178940412761385</v>
+        <v>0.01172186850157775</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05299127346326306</v>
+        <v>0.05619700707688714</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -1585,19 +1585,19 @@
         <v>7700</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3626</v>
+        <v>3586</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13977</v>
+        <v>14411</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02666257199447913</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01255590169851729</v>
+        <v>0.01241611866557647</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04839677163964139</v>
+        <v>0.04989753164037748</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>15</v>
@@ -1606,19 +1606,19 @@
         <v>14282</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8444</v>
+        <v>8329</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>22657</v>
+        <v>23027</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02718522631588752</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01607320824370569</v>
+        <v>0.01585429841819537</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04312753278360272</v>
+        <v>0.04383227997865818</v>
       </c>
     </row>
     <row r="17">
@@ -1635,19 +1635,19 @@
         <v>16070</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9061</v>
+        <v>9200</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>24700</v>
+        <v>25374</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06794020052392948</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03830900976977213</v>
+        <v>0.03889275458682279</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1044242631075838</v>
+        <v>0.1072727447960949</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>15</v>
@@ -1656,19 +1656,19 @@
         <v>14755</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8799</v>
+        <v>8579</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>23884</v>
+        <v>23363</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05108844602909425</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03046703042106962</v>
+        <v>0.02970542320522543</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08269931121855166</v>
+        <v>0.08089441714380192</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>31</v>
@@ -1677,19 +1677,19 @@
         <v>30825</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>21504</v>
+        <v>21234</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>42745</v>
+        <v>42882</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05867598923506814</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04093377522563763</v>
+        <v>0.0404201575058023</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0813652048219249</v>
+        <v>0.08162673730986257</v>
       </c>
     </row>
     <row r="18">
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7623</v>
+        <v>7614</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.005100122262954552</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02544955486559644</v>
+        <v>0.02541836097459475</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8272</v>
+        <v>8297</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.00269397700201354</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0145881291259362</v>
+        <v>0.01463151586548415</v>
       </c>
     </row>
     <row r="20">
@@ -1844,19 +1844,19 @@
         <v>240350</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>228065</v>
+        <v>228218</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>249007</v>
+        <v>249456</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8984011952572627</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8524800135565858</v>
+        <v>0.8530519002326069</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9307589733885571</v>
+        <v>0.9324392298192762</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>286</v>
@@ -1865,19 +1865,19 @@
         <v>277193</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>266074</v>
+        <v>266898</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>285159</v>
+        <v>284958</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9254135953597715</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.888291507993813</v>
+        <v>0.891044120044352</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9520096670625595</v>
+        <v>0.9513363451243745</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>528</v>
@@ -1886,19 +1886,19 @@
         <v>517543</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>502643</v>
+        <v>501441</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>530185</v>
+        <v>529601</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9126696345011467</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8863931828864092</v>
+        <v>0.8842746921738172</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9349636752747351</v>
+        <v>0.9339328822646351</v>
       </c>
     </row>
     <row r="21">
@@ -1915,19 +1915,19 @@
         <v>8549</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4032</v>
+        <v>3803</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>17257</v>
+        <v>16209</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03195462071718345</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01507299961403502</v>
+        <v>0.01421406524534042</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.06450302031418578</v>
+        <v>0.06058634769622605</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>6</v>
@@ -1936,19 +1936,19 @@
         <v>5945</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2108</v>
+        <v>2046</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>12323</v>
+        <v>12045</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01984844438579796</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.007038024641371616</v>
+        <v>0.006830605303898455</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.04114122094498098</v>
+        <v>0.04021368212887768</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>14</v>
@@ -1957,19 +1957,19 @@
         <v>14494</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>7717</v>
+        <v>8007</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>23487</v>
+        <v>23011</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02555991899484088</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01360797372955442</v>
+        <v>0.01411933311944595</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04141827700892958</v>
+        <v>0.04057996378843022</v>
       </c>
     </row>
     <row r="22">
@@ -1986,19 +1986,19 @@
         <v>18632</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11360</v>
+        <v>10746</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>29327</v>
+        <v>28134</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06964418402555389</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04246233215046819</v>
+        <v>0.0401681602157939</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1096220615997896</v>
+        <v>0.1051634482142166</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>15</v>
@@ -2007,19 +2007,19 @@
         <v>14868</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8325</v>
+        <v>8587</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>23509</v>
+        <v>24308</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04963783799147593</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02779456121851034</v>
+        <v>0.02866856413905717</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07848599032542519</v>
+        <v>0.08115382264839245</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>33</v>
@@ -2028,19 +2028,19 @@
         <v>33500</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>22804</v>
+        <v>24008</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>46166</v>
+        <v>47782</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05907646950199893</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04021422493123344</v>
+        <v>0.04233717972349797</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08141288342562546</v>
+        <v>0.08426206069803661</v>
       </c>
     </row>
     <row r="23">
@@ -2179,19 +2179,19 @@
         <v>157127</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>149357</v>
+        <v>147920</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>163016</v>
+        <v>162583</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.9227652490899503</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8771342555407954</v>
+        <v>0.8686950538560441</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.9573498507936448</v>
+        <v>0.9548112278787789</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>154</v>
@@ -2200,19 +2200,19 @@
         <v>160226</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>150849</v>
+        <v>151027</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>166362</v>
+        <v>167042</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.9213390000312079</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.8674144069843841</v>
+        <v>0.8684407845093601</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.9566175542907488</v>
+        <v>0.9605300282067121</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>311</v>
@@ -2221,19 +2221,19 @@
         <v>317353</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>305665</v>
+        <v>305667</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>326684</v>
+        <v>326270</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.9220446079426936</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.8880856947807033</v>
+        <v>0.8880905352768752</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.9491544680854651</v>
+        <v>0.9479524790611554</v>
       </c>
     </row>
     <row r="26">
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>6501</v>
+        <v>5726</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01093707018911409</v>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03817711294592024</v>
+        <v>0.03362622168494971</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6478</v>
+        <v>6922</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.005410894546509451</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01882040020153995</v>
+        <v>0.02011068209106085</v>
       </c>
     </row>
     <row r="27">
@@ -2313,19 +2313,19 @@
         <v>11289</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>6107</v>
+        <v>6083</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>19077</v>
+        <v>19399</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.06629768072093561</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.03586426683060299</v>
+        <v>0.03572576938487518</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1120316629431449</v>
+        <v>0.1139267893652444</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>12</v>
@@ -2334,19 +2334,19 @@
         <v>13680</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>7544</v>
+        <v>6864</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>23057</v>
+        <v>22879</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.07866099996879204</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.04338244570925125</v>
+        <v>0.03946997179328791</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.132585593015616</v>
+        <v>0.13155921549064</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>24</v>
@@ -2355,19 +2355,19 @@
         <v>24969</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>15864</v>
+        <v>16450</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>36112</v>
+        <v>36051</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.0725444975107969</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.04609211274861737</v>
+        <v>0.04779464832995144</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1049217737376046</v>
+        <v>0.1047422243542662</v>
       </c>
     </row>
     <row r="28">
@@ -2506,19 +2506,19 @@
         <v>175082</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>165933</v>
+        <v>166131</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>181541</v>
+        <v>181578</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9250380791950372</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8767010971170388</v>
+        <v>0.8777451829781677</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9591628758136161</v>
+        <v>0.9593575559451325</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>189</v>
@@ -2527,19 +2527,19 @@
         <v>194625</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>187182</v>
+        <v>187620</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>199499</v>
+        <v>199012</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9517649335970542</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.9153715239906645</v>
+        <v>0.9175118350364015</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9756022837976391</v>
+        <v>0.9732184888957061</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>362</v>
@@ -2548,19 +2548,19 @@
         <v>369706</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>357893</v>
+        <v>358308</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>378212</v>
+        <v>378179</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9389179766192356</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9089162272632172</v>
+        <v>0.9099709254221385</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9605185734423688</v>
+        <v>0.9604348916526295</v>
       </c>
     </row>
     <row r="31">
@@ -2577,19 +2577,19 @@
         <v>2831</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>8185</v>
+        <v>8177</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01495536070723558</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.004592410051442676</v>
+        <v>0.004582615153306778</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04324647244797574</v>
+        <v>0.04320364702281979</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1</v>
@@ -2601,7 +2601,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>3770</v>
+        <v>4709</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.004568576666345959</v>
@@ -2610,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.01843835848478819</v>
+        <v>0.02302651707431685</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>4</v>
@@ -2619,19 +2619,19 @@
         <v>3765</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>9428</v>
+        <v>9472</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.009561254282052623</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.002446051648993327</v>
+        <v>0.002472345966282464</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02394456487881278</v>
+        <v>0.02405632963735847</v>
       </c>
     </row>
     <row r="32">
@@ -2648,19 +2648,19 @@
         <v>11357</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>5736</v>
+        <v>5455</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>21091</v>
+        <v>19713</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.06000656009772724</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.03030644804601838</v>
+        <v>0.02882277458924684</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1114353305701799</v>
+        <v>0.1041505490347704</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>9</v>
@@ -2669,19 +2669,19 @@
         <v>8929</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>4651</v>
+        <v>4195</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>16622</v>
+        <v>15822</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.0436664897365999</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02274427040717164</v>
+        <v>0.02051575125116512</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.08128431987014702</v>
+        <v>0.07737243747324217</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>19</v>
@@ -2690,19 +2690,19 @@
         <v>20287</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>12950</v>
+        <v>12472</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>32308</v>
+        <v>30260</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.05152076909871178</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03288867666058604</v>
+        <v>0.03167342429797848</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.08205063122877573</v>
+        <v>0.07684915832924891</v>
       </c>
     </row>
     <row r="33">
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>5328</v>
+        <v>5456</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.001990532454999763</v>
@@ -2819,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.009878731965533303</v>
+        <v>0.01011599526884213</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1</v>
@@ -2831,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>5297</v>
+        <v>5044</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.0010687864221696</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.005273207197918801</v>
+        <v>0.005020864461674969</v>
       </c>
     </row>
     <row r="35">
@@ -2857,19 +2857,19 @@
         <v>426168</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>413841</v>
+        <v>414933</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>436935</v>
+        <v>438955</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.9161684339792864</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.8896679294653694</v>
+        <v>0.8920170253340237</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.9393164580125248</v>
+        <v>0.9436594608891593</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>476</v>
@@ -2878,19 +2878,19 @@
         <v>490577</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>475491</v>
+        <v>475924</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>503683</v>
+        <v>503919</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.90953954651942</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.8815708104625533</v>
+        <v>0.8823727449310876</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.9338387297879858</v>
+        <v>0.9342760906572172</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>892</v>
@@ -2899,19 +2899,19 @@
         <v>916744</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>897315</v>
+        <v>896974</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>935048</v>
+        <v>933679</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.9126091526958289</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.8932679114870936</v>
+        <v>0.8929282193614239</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.9308307481866033</v>
+        <v>0.9294678910219718</v>
       </c>
     </row>
     <row r="36">
@@ -2928,19 +2928,19 @@
         <v>4628</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1768</v>
+        <v>1756</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>9954</v>
+        <v>10381</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.009948354830872962</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.003801344343843365</v>
+        <v>0.003774323916203813</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.02139892827106248</v>
+        <v>0.02231679797944019</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>12</v>
@@ -2949,19 +2949,19 @@
         <v>12913</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>6849</v>
+        <v>7247</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>22415</v>
+        <v>22639</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.02394099928017688</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01269911909166788</v>
+        <v>0.01343587567510529</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.04155839636087004</v>
+        <v>0.04197348825000927</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>17</v>
@@ -2970,19 +2970,19 @@
         <v>17541</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>9826</v>
+        <v>10461</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>27178</v>
+        <v>27677</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01746149452377219</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.009781477944694692</v>
+        <v>0.01041343996788042</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02705543192404912</v>
+        <v>0.02755212320813562</v>
       </c>
     </row>
     <row r="37">
@@ -2999,19 +2999,19 @@
         <v>34368</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>24330</v>
+        <v>22655</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>46494</v>
+        <v>45919</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.07388321118984065</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.05230426615834083</v>
+        <v>0.04870413059825887</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.09995205800697012</v>
+        <v>0.09871617525928279</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>35</v>
@@ -3020,19 +3020,19 @@
         <v>34805</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>24902</v>
+        <v>23510</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>47436</v>
+        <v>46244</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.06452892174540327</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.04616877747713419</v>
+        <v>0.0435872782367365</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.08794659739264765</v>
+        <v>0.08573735623043351</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>69</v>
@@ -3041,19 +3041,19 @@
         <v>69173</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>53527</v>
+        <v>53851</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>86680</v>
+        <v>86274</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.06886056635822936</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.05328590501028709</v>
+        <v>0.05360767822757048</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.08628873209823712</v>
+        <v>0.08588456818888113</v>
       </c>
     </row>
     <row r="38">
@@ -3148,7 +3148,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>5320</v>
+        <v>6104</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.003346634241440307</v>
@@ -3157,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.01009302592454093</v>
+        <v>0.01158116250845537</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>2</v>
@@ -3169,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>6237</v>
+        <v>7160</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.003486059289191207</v>
@@ -3178,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.01052787411362784</v>
+        <v>0.01208592524420071</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>4</v>
@@ -3187,19 +3187,19 @@
         <v>3829</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>1013</v>
+        <v>890</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>9096</v>
+        <v>8645</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.003420416709782437</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.0009045333200893617</v>
+        <v>0.0007947593620110852</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.008125575290621346</v>
+        <v>0.007722290402562941</v>
       </c>
     </row>
     <row r="40">
@@ -3216,19 +3216,19 @@
         <v>474880</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>460127</v>
+        <v>458784</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>488312</v>
+        <v>487144</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.9010073947017126</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.8730151918642178</v>
+        <v>0.8704670959576777</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.9264921709527444</v>
+        <v>0.9242760133230123</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>512</v>
@@ -3237,19 +3237,19 @@
         <v>533332</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>517057</v>
+        <v>517716</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>546887</v>
+        <v>547948</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.9002715893538418</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.8727992352671455</v>
+        <v>0.8739125387423713</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.9231535259923552</v>
+        <v>0.9249447049422027</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>984</v>
@@ -3258,19 +3258,19 @@
         <v>1008212</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>984775</v>
+        <v>987083</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>1027970</v>
+        <v>1028306</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.900618013197736</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.8796820694965956</v>
+        <v>0.8817433039664482</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.9182671705580677</v>
+        <v>0.918567617144906</v>
       </c>
     </row>
     <row r="41">
@@ -3287,19 +3287,19 @@
         <v>18995</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>11066</v>
+        <v>11396</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>31076</v>
+        <v>29017</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.03603981868543663</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.02099509457450982</v>
+        <v>0.02162246361930004</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.05896250383166356</v>
+        <v>0.05505557204285692</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>10</v>
@@ -3308,19 +3308,19 @@
         <v>11931</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>6180</v>
+        <v>6144</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>21462</v>
+        <v>21475</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.02013985323175102</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.01043260647685481</v>
+        <v>0.01037105632341702</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.03622854808698487</v>
+        <v>0.03625078890148933</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>28</v>
@@ -3329,19 +3329,19 @@
         <v>30926</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>20454</v>
+        <v>20725</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>44055</v>
+        <v>43831</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.02762570144716626</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01827149488501984</v>
+        <v>0.01851284376454705</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.03935311299821195</v>
+        <v>0.03915379710366131</v>
       </c>
     </row>
     <row r="42">
@@ -3358,19 +3358,19 @@
         <v>31416</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>21076</v>
+        <v>21488</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>43078</v>
+        <v>44333</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.05960615237141039</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.039988072481103</v>
+        <v>0.04077025691141505</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.08173338923301174</v>
+        <v>0.08411406845034183</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>41</v>
@@ -3379,19 +3379,19 @@
         <v>45084</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>32442</v>
+        <v>32342</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>60120</v>
+        <v>60729</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.07610249812521602</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.05476221185353503</v>
+        <v>0.05459306751086234</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1014835337102436</v>
+        <v>0.1025121422888134</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>72</v>
@@ -3400,19 +3400,19 @@
         <v>76500</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>58980</v>
+        <v>60222</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>94704</v>
+        <v>95137</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.06833586864531524</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.05268585015389757</v>
+        <v>0.05379495564254724</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.08459765654755103</v>
+        <v>0.08498415555197861</v>
       </c>
     </row>
     <row r="43">
@@ -3504,19 +3504,19 @@
         <v>2635</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>7836</v>
+        <v>7879</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.001072399745460197</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.000352873296110889</v>
+        <v>0.0003540539245578476</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.003188954993628127</v>
+        <v>0.003206727287572992</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>6</v>
@@ -3525,19 +3525,19 @@
         <v>6796</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>2130</v>
+        <v>2428</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>14023</v>
+        <v>14933</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.002479488326358917</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.0007770843008509324</v>
+        <v>0.00088568602589808</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.005116034289071539</v>
+        <v>0.005448081171732487</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>9</v>
@@ -3546,19 +3546,19 @@
         <v>9431</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>4647</v>
+        <v>4776</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>17588</v>
+        <v>18140</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.001814363146576517</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.0008940175927872087</v>
+        <v>0.0009188427016454306</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.003383573619569023</v>
+        <v>0.003489868164980896</v>
       </c>
     </row>
     <row r="45">
@@ -3575,19 +3575,19 @@
         <v>2221956</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>2191134</v>
+        <v>2187643</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>2249120</v>
+        <v>2248414</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.9043060430012227</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.8917620579419266</v>
+        <v>0.8903410989718291</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.9153616284585351</v>
+        <v>0.9150739513123993</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>2447</v>
@@ -3596,19 +3596,19 @@
         <v>2500664</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>2469626</v>
+        <v>2468762</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>2529443</v>
+        <v>2530431</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.9123392065496956</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.901015269264122</v>
+        <v>0.9007001952954283</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.9228386278390514</v>
+        <v>0.9231992664824866</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>4627</v>
@@ -3617,19 +3617,19 @@
         <v>4722620</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>4681638</v>
+        <v>4675509</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>4763967</v>
+        <v>4763300</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.9085419620677692</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.9006578229431329</v>
+        <v>0.899478724723315</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.9164962040139774</v>
+        <v>0.916367924996874</v>
       </c>
     </row>
     <row r="46">
@@ -3646,19 +3646,19 @@
         <v>55875</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>41743</v>
+        <v>42692</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>71831</v>
+        <v>71276</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.0227404425092456</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.01698889761415897</v>
+        <v>0.01737503496148966</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.02923407359926145</v>
+        <v>0.02900841039081318</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>47</v>
@@ -3667,19 +3667,19 @@
         <v>49688</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>36849</v>
+        <v>37138</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>66000</v>
+        <v>66586</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.01812828168666321</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.01344384042809717</v>
+        <v>0.01354920616960035</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.02407945747517348</v>
+        <v>0.02429331246279512</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>101</v>
@@ -3688,19 +3688,19 @@
         <v>105564</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>85501</v>
+        <v>86807</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>127338</v>
+        <v>124925</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.02030843177667823</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.01644879092950126</v>
+        <v>0.01670005178609766</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.02449741058928227</v>
+        <v>0.02403317966338461</v>
       </c>
     </row>
     <row r="47">
@@ -3717,19 +3717,19 @@
         <v>176618</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>152634</v>
+        <v>152715</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>204780</v>
+        <v>208225</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.07188111474407147</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.06212011698538113</v>
+        <v>0.06215307489897698</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.08334249177166811</v>
+        <v>0.08474476885192228</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>179</v>
@@ -3738,19 +3738,19 @@
         <v>183788</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>156274</v>
+        <v>159756</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>209062</v>
+        <v>211781</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.06705302343728228</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.05701489595778381</v>
+        <v>0.05828523405538037</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.07627377535421213</v>
+        <v>0.07726581949087856</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>351</v>
@@ -3759,19 +3759,19 @@
         <v>360406</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>323709</v>
+        <v>323705</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>399006</v>
+        <v>400081</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.06933524300897614</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.06227542859505823</v>
+        <v>0.06227469737204543</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.0767611010805969</v>
+        <v>0.0769679161833073</v>
       </c>
     </row>
     <row r="48">
@@ -4154,19 +4154,19 @@
         <v>204504</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>190967</v>
+        <v>191672</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>216855</v>
+        <v>215579</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8161861170854712</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7621611488215378</v>
+        <v>0.764974158402153</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8654797742319493</v>
+        <v>0.8603904040519991</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>188</v>
@@ -4175,19 +4175,19 @@
         <v>209186</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>195941</v>
+        <v>196209</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>220793</v>
+        <v>221308</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8326806701238166</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7799562674194288</v>
+        <v>0.7810264337757744</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8788829455158707</v>
+        <v>0.8809340146014801</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>386</v>
@@ -4196,19 +4196,19 @@
         <v>413690</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>393308</v>
+        <v>394810</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>431390</v>
+        <v>430519</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8244442331814732</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7838256853751095</v>
+        <v>0.7868195584568844</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8597199045399715</v>
+        <v>0.8579838533386452</v>
       </c>
     </row>
     <row r="6">
@@ -4225,19 +4225,19 @@
         <v>7846</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3016</v>
+        <v>2957</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17327</v>
+        <v>16752</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03131472783066529</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01203839171263239</v>
+        <v>0.01180215362219258</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06915369774940347</v>
+        <v>0.0668577581461635</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -4246,19 +4246,19 @@
         <v>6189</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2083</v>
+        <v>2121</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>12498</v>
+        <v>12223</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02463394425981442</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.008292385945490546</v>
+        <v>0.00844175273269978</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.049750889833173</v>
+        <v>0.04865464195784265</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>12</v>
@@ -4267,19 +4267,19 @@
         <v>14035</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>7073</v>
+        <v>7722</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>24983</v>
+        <v>26232</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02796994569488436</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01409653775917116</v>
+        <v>0.01538910982254263</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04978844520046565</v>
+        <v>0.05227718403936858</v>
       </c>
     </row>
     <row r="7">
@@ -4296,19 +4296,19 @@
         <v>38210</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>27743</v>
+        <v>28337</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>50847</v>
+        <v>50676</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1524991550838635</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1107239863653822</v>
+        <v>0.1130933836177909</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2029348778663873</v>
+        <v>0.2022506654947117</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>30</v>
@@ -4317,19 +4317,19 @@
         <v>35845</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>24754</v>
+        <v>24744</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>48900</v>
+        <v>48931</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1426853856163689</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09853528823138712</v>
+        <v>0.09849704548997615</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1946492924753456</v>
+        <v>0.1947716536343171</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>67</v>
@@ -4338,19 +4338,19 @@
         <v>74056</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>58324</v>
+        <v>57547</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>92270</v>
+        <v>91831</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1475858211236425</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.116235191327067</v>
+        <v>0.1146856480623371</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1838850276997154</v>
+        <v>0.1830097532572852</v>
       </c>
     </row>
     <row r="8">
@@ -4445,7 +4445,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5074</v>
+        <v>5133</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.002486368298419167</v>
@@ -4454,7 +4454,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01248691279482638</v>
+        <v>0.01263334947703423</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -4479,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>5675</v>
+        <v>5636</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.001196910430998676</v>
@@ -4488,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.00672333896713286</v>
+        <v>0.006677079668554809</v>
       </c>
     </row>
     <row r="10">
@@ -4505,19 +4505,19 @@
         <v>311278</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>292660</v>
+        <v>291300</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>328593</v>
+        <v>328286</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7660716341243509</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7202523777001348</v>
+        <v>0.7169058514879975</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8086854990170155</v>
+        <v>0.8079298115523478</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>342</v>
@@ -4526,19 +4526,19 @@
         <v>374011</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>357731</v>
+        <v>356424</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>387662</v>
+        <v>387304</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8543979755889211</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8172075003106096</v>
+        <v>0.814222657560036</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8855831274812276</v>
+        <v>0.8847651349560953</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>639</v>
@@ -4547,19 +4547,19 @@
         <v>685289</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>658724</v>
+        <v>659017</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>706545</v>
+        <v>709355</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8118786434778614</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7804059993454484</v>
+        <v>0.7807540836605976</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8370606966663393</v>
+        <v>0.8403908577216037</v>
       </c>
     </row>
     <row r="11">
@@ -4576,19 +4576,19 @@
         <v>18234</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>10162</v>
+        <v>10274</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>30716</v>
+        <v>31530</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04487482560060907</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02500827582539653</v>
+        <v>0.02528556545363504</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07559460577801409</v>
+        <v>0.07759637359934861</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>9</v>
@@ -4597,19 +4597,19 @@
         <v>10467</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5298</v>
+        <v>5308</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>20524</v>
+        <v>19186</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02391161717824874</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01210338009035879</v>
+        <v>0.01212537345823254</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0468865527587183</v>
+        <v>0.04382866045916282</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>23</v>
@@ -4618,19 +4618,19 @@
         <v>28701</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>17918</v>
+        <v>17518</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>43676</v>
+        <v>44237</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03400307581045351</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02122778126266124</v>
+        <v>0.02075369839823604</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05174434999883412</v>
+        <v>0.05240873371428474</v>
       </c>
     </row>
     <row r="12">
@@ -4647,19 +4647,19 @@
         <v>75808</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>60466</v>
+        <v>59661</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>93110</v>
+        <v>93339</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1865671719766209</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1488102773352679</v>
+        <v>0.1468291003370161</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2291499400381903</v>
+        <v>0.2297134306343449</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>50</v>
@@ -4668,19 +4668,19 @@
         <v>53270</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>40100</v>
+        <v>40772</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>69060</v>
+        <v>69196</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1216904072328302</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09160584030140496</v>
+        <v>0.09314000751003206</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.15776214173685</v>
+        <v>0.1580725528412281</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>120</v>
@@ -4689,19 +4689,19 @@
         <v>129078</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>109737</v>
+        <v>109100</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>153604</v>
+        <v>151918</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1529213702806864</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1300080712269038</v>
+        <v>0.1292530996465752</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1819782039500804</v>
+        <v>0.1799815391779038</v>
       </c>
     </row>
     <row r="13">
@@ -4840,19 +4840,19 @@
         <v>239521</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>225345</v>
+        <v>225209</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>251592</v>
+        <v>251077</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.8182208875100391</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7697950665824395</v>
+        <v>0.7693303775708761</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8594573281058274</v>
+        <v>0.8576964716892463</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>257</v>
@@ -4861,19 +4861,19 @@
         <v>277424</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>262622</v>
+        <v>262302</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>289799</v>
+        <v>288638</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.8438697636086048</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.7988456384794798</v>
+        <v>0.797871627799835</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.8815138771389018</v>
+        <v>0.8779823364299871</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>492</v>
@@ -4882,19 +4882,19 @@
         <v>516945</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>497546</v>
+        <v>496430</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>535903</v>
+        <v>535211</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.8317885591889094</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.8005748094176605</v>
+        <v>0.798778731910042</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.862293305815125</v>
+        <v>0.8611801434566784</v>
       </c>
     </row>
     <row r="16">
@@ -4911,19 +4911,19 @@
         <v>7852</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3764</v>
+        <v>3794</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14554</v>
+        <v>14857</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02682260723301961</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01285738429019617</v>
+        <v>0.01296018261930875</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04971729871092727</v>
+        <v>0.05075258315905442</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -4932,19 +4932,19 @@
         <v>4085</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>988</v>
+        <v>1002</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9496</v>
+        <v>9190</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01242560636597688</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003004147717637273</v>
+        <v>0.003048449398920224</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02888355912311432</v>
+        <v>0.02795499928498012</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -4953,19 +4953,19 @@
         <v>11937</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6878</v>
+        <v>6750</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21342</v>
+        <v>19699</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01920692145506186</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01106647724135775</v>
+        <v>0.01086154491503078</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03434083029629312</v>
+        <v>0.03169593060605171</v>
       </c>
     </row>
     <row r="17">
@@ -4982,19 +4982,19 @@
         <v>45361</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>34226</v>
+        <v>34333</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>59271</v>
+        <v>58182</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1549565052569413</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1169172266291576</v>
+        <v>0.1172842130087518</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2024734701037608</v>
+        <v>0.1987548462841658</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>44</v>
@@ -5003,19 +5003,19 @@
         <v>47243</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>35943</v>
+        <v>35982</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>62032</v>
+        <v>61766</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1437046300254184</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1093328137607231</v>
+        <v>0.1094517785028481</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1886891860089107</v>
+        <v>0.1878789461063947</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>89</v>
@@ -5024,19 +5024,19 @@
         <v>92604</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>75797</v>
+        <v>74530</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>111404</v>
+        <v>112265</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1490045193560287</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1219617055317557</v>
+        <v>0.1199227901363504</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1792549321546942</v>
+        <v>0.1806400123839</v>
       </c>
     </row>
     <row r="18">
@@ -5175,19 +5175,19 @@
         <v>257090</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>242058</v>
+        <v>241179</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>269276</v>
+        <v>271969</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.826249817613925</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7779380600825981</v>
+        <v>0.7751141013746901</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8654130883593292</v>
+        <v>0.8740668260999634</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>288</v>
@@ -5196,19 +5196,19 @@
         <v>303588</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>290044</v>
+        <v>292367</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>314450</v>
+        <v>314634</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8903488761710487</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8506255158568341</v>
+        <v>0.8574383263206763</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9222027020967996</v>
+        <v>0.9227423393119278</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>529</v>
@@ -5217,19 +5217,19 @@
         <v>560679</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>539923</v>
+        <v>540235</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>578106</v>
+        <v>579033</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8597650696587893</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8279361933483499</v>
+        <v>0.8284148033877284</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8864881829028848</v>
+        <v>0.887909780930453</v>
       </c>
     </row>
     <row r="21">
@@ -5246,19 +5246,19 @@
         <v>17067</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>8520</v>
+        <v>8722</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>28389</v>
+        <v>29245</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.0548493549740458</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02738073623331543</v>
+        <v>0.02803220175953991</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09123759789931049</v>
+        <v>0.09398876126004956</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>6</v>
@@ -5267,19 +5267,19 @@
         <v>6677</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2778</v>
+        <v>2850</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>13759</v>
+        <v>13517</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01958335215510591</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.008146205334359296</v>
+        <v>0.008358829308747028</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.04035181137004432</v>
+        <v>0.03964152444821062</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>19</v>
@@ -5288,19 +5288,19 @@
         <v>23744</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>14280</v>
+        <v>15420</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>37031</v>
+        <v>37089</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03640994260672782</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02189735424270628</v>
+        <v>0.02364552920350253</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05678498715240009</v>
+        <v>0.05687342577013118</v>
       </c>
     </row>
     <row r="22">
@@ -5317,19 +5317,19 @@
         <v>36996</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>26582</v>
+        <v>25710</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>51260</v>
+        <v>50758</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1189008274120292</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08543147674472558</v>
+        <v>0.08262954045258632</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1647417357361498</v>
+        <v>0.1631300006929444</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>30</v>
@@ -5338,19 +5338,19 @@
         <v>30711</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>21254</v>
+        <v>21270</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>42789</v>
+        <v>41371</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09006777167384536</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06233368320373824</v>
+        <v>0.06237919174596739</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1254887341792414</v>
+        <v>0.121331152626034</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>63</v>
@@ -5359,19 +5359,19 @@
         <v>67707</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>52496</v>
+        <v>52565</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>86140</v>
+        <v>85852</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1038249877344828</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0804998403817624</v>
+        <v>0.08060440803259065</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1320906090204962</v>
+        <v>0.1316489939596677</v>
       </c>
     </row>
     <row r="23">
@@ -5510,19 +5510,19 @@
         <v>165344</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>154275</v>
+        <v>154337</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>174331</v>
+        <v>173738</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.8567121528243932</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7993607204596661</v>
+        <v>0.7996830643131456</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.9032788305250158</v>
+        <v>0.9002055550322837</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>161</v>
@@ -5531,19 +5531,19 @@
         <v>167574</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>156919</v>
+        <v>157137</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>176182</v>
+        <v>176325</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.8615765456342279</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.8067938627958373</v>
+        <v>0.8079135458227151</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.9058341097802212</v>
+        <v>0.9065711770657739</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>312</v>
@@ -5552,19 +5552,19 @@
         <v>332918</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>316393</v>
+        <v>317065</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>345326</v>
+        <v>345744</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.8591537569915597</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.8165079321606113</v>
+        <v>0.8182433956454068</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.891176297308296</v>
+        <v>0.8922542362555327</v>
       </c>
     </row>
     <row r="26">
@@ -5584,7 +5584,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>4672</v>
+        <v>4350</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.004780981077872745</v>
@@ -5593,7 +5593,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02420725221622431</v>
+        <v>0.02253807201357876</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3</v>
@@ -5605,16 +5605,16 @@
         <v>880</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>7334</v>
+        <v>8310</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01411517301550639</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.004526555026124071</v>
+        <v>0.00452556896827913</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03770909959015266</v>
+        <v>0.04272565111389184</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4</v>
@@ -5623,19 +5623,19 @@
         <v>3668</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>960</v>
+        <v>911</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>8966</v>
+        <v>8993</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.009466129424852667</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.002477174473156018</v>
+        <v>0.002351924965168618</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02313835531993868</v>
+        <v>0.02320913717208472</v>
       </c>
     </row>
     <row r="27">
@@ -5652,19 +5652,19 @@
         <v>26732</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>17879</v>
+        <v>18245</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>37977</v>
+        <v>37374</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1385068660977341</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.09263967363528937</v>
+        <v>0.09453419807397756</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1967726772359213</v>
+        <v>0.1936516343118866</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>24</v>
@@ -5673,19 +5673,19 @@
         <v>24178</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>16156</v>
+        <v>16016</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>34604</v>
+        <v>33600</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1243082813502656</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.0830641703420575</v>
+        <v>0.08234566296742041</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1779138817851833</v>
+        <v>0.17275234723392</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>49</v>
@@ -5694,19 +5694,19 @@
         <v>50909</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>38718</v>
+        <v>39476</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>67403</v>
+        <v>66682</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1313801135835876</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.0999184929152947</v>
+        <v>0.1018755794212765</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1739444673287129</v>
+        <v>0.1720854859378795</v>
       </c>
     </row>
     <row r="28">
@@ -5845,19 +5845,19 @@
         <v>209600</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>195539</v>
+        <v>197476</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>220806</v>
+        <v>221283</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.8419790490265269</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.7854940694939669</v>
+        <v>0.7932758921459163</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8869972157297036</v>
+        <v>0.8889122007504593</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>215</v>
@@ -5866,19 +5866,19 @@
         <v>224644</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>212110</v>
+        <v>211990</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>235622</v>
+        <v>235323</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.8482572850005944</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8009294862005394</v>
+        <v>0.8004740804694479</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8897121056930917</v>
+        <v>0.888580461645743</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>415</v>
@@ -5887,19 +5887,19 @@
         <v>434244</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>416423</v>
+        <v>419655</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>450814</v>
+        <v>451205</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.84521527060089</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8105289714170133</v>
+        <v>0.8168194539579324</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8774683700713725</v>
+        <v>0.8782295851025008</v>
       </c>
     </row>
     <row r="31">
@@ -5919,7 +5919,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>6459</v>
+        <v>6542</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.007443931475462655</v>
@@ -5928,7 +5928,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02594489226418978</v>
+        <v>0.02627779437116497</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>3</v>
@@ -5937,19 +5937,19 @@
         <v>3088</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>951</v>
+        <v>930</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>8972</v>
+        <v>8934</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01166151893729955</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.003592734186620762</v>
+        <v>0.003512020600593299</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03388018658699125</v>
+        <v>0.03373488212793087</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>5</v>
@@ -5958,19 +5958,19 @@
         <v>4941</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1896</v>
+        <v>1909</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>10350</v>
+        <v>10983</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.009617957363010927</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.00368969994185399</v>
+        <v>0.003715395567161239</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02014502864217177</v>
+        <v>0.02137785606441985</v>
       </c>
     </row>
     <row r="32">
@@ -5987,19 +5987,19 @@
         <v>37484</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>26785</v>
+        <v>25915</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>50980</v>
+        <v>50018</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1505770194980104</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1075974753170754</v>
+        <v>0.1041038836230091</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.204789214921068</v>
+        <v>0.2009283465123878</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>36</v>
@@ -6008,19 +6008,19 @@
         <v>37098</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>26717</v>
+        <v>27135</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>49198</v>
+        <v>49686</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.140081196062106</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1008824646967505</v>
+        <v>0.1024609868145557</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1857717844521319</v>
+        <v>0.1876134633497031</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>71</v>
@@ -6029,19 +6029,19 @@
         <v>74582</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>59156</v>
+        <v>58801</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>92899</v>
+        <v>88849</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1451667720360991</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.115140931267177</v>
+        <v>0.1144504340282577</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1808198075233519</v>
+        <v>0.1729360993166024</v>
       </c>
     </row>
     <row r="33">
@@ -6136,7 +6136,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>6500</v>
+        <v>5546</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.002243513758413067</v>
@@ -6145,7 +6145,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.01130527825631674</v>
+        <v>0.009645351510645736</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>0</v>
@@ -6170,7 +6170,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>6476</v>
+        <v>6438</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.001074807377007962</v>
@@ -6179,7 +6179,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.005395980134640643</v>
+        <v>0.005364032556268071</v>
       </c>
     </row>
     <row r="35">
@@ -6196,19 +6196,19 @@
         <v>492999</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>474362</v>
+        <v>475343</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>508960</v>
+        <v>510005</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.8574670074273707</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.8250528423933016</v>
+        <v>0.8267574210840417</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.8852286604849681</v>
+        <v>0.887045852656049</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>509</v>
@@ -6217,19 +6217,19 @@
         <v>555756</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>539083</v>
+        <v>536518</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>571588</v>
+        <v>570955</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.8889561700906108</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.8622876443574817</v>
+        <v>0.8581849504053725</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.9142805395699055</v>
+        <v>0.9132678577616614</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>968</v>
@@ -6238,19 +6238,19 @@
         <v>1048755</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1024631</v>
+        <v>1026075</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1071828</v>
+        <v>1071504</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.8738705553047251</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.8537696038478459</v>
+        <v>0.8549727750694996</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.8930960165704667</v>
+        <v>0.8928259419092913</v>
       </c>
     </row>
     <row r="36">
@@ -6267,19 +6267,19 @@
         <v>13406</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>7875</v>
+        <v>7226</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>23846</v>
+        <v>21840</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.02331676262946348</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01369705691653913</v>
+        <v>0.01256842503141642</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.04147522604499078</v>
+        <v>0.0379855020489617</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>10</v>
@@ -6288,19 +6288,19 @@
         <v>12925</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>6813</v>
+        <v>6113</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>24709</v>
+        <v>25276</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.02067414772415472</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01089797482155994</v>
+        <v>0.009778136705225704</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.03952245096984725</v>
+        <v>0.04042973287959542</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>23</v>
@@ -6309,19 +6309,19 @@
         <v>26331</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>16793</v>
+        <v>16889</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>39281</v>
+        <v>40883</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02194015377567371</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01399281975731324</v>
+        <v>0.01407278020130605</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.03273095898722476</v>
+        <v>0.03406557083034385</v>
       </c>
     </row>
     <row r="37">
@@ -6338,19 +6338,19 @@
         <v>67253</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>52805</v>
+        <v>51747</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>84092</v>
+        <v>83698</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1169727161847527</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.09184305920950613</v>
+        <v>0.09000222769798862</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1462596200581958</v>
+        <v>0.1455742825993933</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>52</v>
@@ -6359,19 +6359,19 @@
         <v>56497</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>41975</v>
+        <v>42400</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>72213</v>
+        <v>73593</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.09036968218523454</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.0671400907833004</v>
+        <v>0.06782014900684359</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1155084188617992</v>
+        <v>0.1177149715557516</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>116</v>
@@ -6380,19 +6380,19 @@
         <v>123750</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>103631</v>
+        <v>104258</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>146366</v>
+        <v>145052</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1031144835425932</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.08634998726193661</v>
+        <v>0.086872349618932</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1219590366680415</v>
+        <v>0.1208640365435785</v>
       </c>
     </row>
     <row r="38">
@@ -6531,19 +6531,19 @@
         <v>533125</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>513390</v>
+        <v>511034</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>550508</v>
+        <v>551463</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.8464196655160215</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.8150867033246035</v>
+        <v>0.8113472076537234</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.874018373481618</v>
+        <v>0.8755348248619056</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>560</v>
@@ -6552,19 +6552,19 @@
         <v>605514</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>584343</v>
+        <v>582674</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>623802</v>
+        <v>621370</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.8646752972282751</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.8344434597104345</v>
+        <v>0.8320598486983699</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.8907901073295453</v>
+        <v>0.8873181168979765</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>1056</v>
@@ -6573,19 +6573,19 @@
         <v>1138639</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1109716</v>
+        <v>1108416</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>1164737</v>
+        <v>1166069</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.8560307267223465</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.8342862650928303</v>
+        <v>0.8333092240276526</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.8756510567301725</v>
+        <v>0.8766524593767901</v>
       </c>
     </row>
     <row r="41">
@@ -6602,19 +6602,19 @@
         <v>30213</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>20432</v>
+        <v>20358</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>44398</v>
+        <v>43409</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.04796799661842536</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.03243947603722101</v>
+        <v>0.03232117473706366</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.07048929057174344</v>
+        <v>0.06891900207163205</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>29</v>
@@ -6623,19 +6623,19 @@
         <v>34745</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>25256</v>
+        <v>23480</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>50559</v>
+        <v>49847</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.04961601707651717</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.03606555987041164</v>
+        <v>0.03352944769686369</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.07219769147844965</v>
+        <v>0.07118232682946693</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>56</v>
@@ -6644,19 +6644,19 @@
         <v>64958</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>48636</v>
+        <v>49497</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>82580</v>
+        <v>85603</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.04883563164424396</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.0365642947068275</v>
+        <v>0.03721158565050107</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.06208393579921798</v>
+        <v>0.06435666067605697</v>
       </c>
     </row>
     <row r="42">
@@ -6673,19 +6673,19 @@
         <v>66521</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>51997</v>
+        <v>51078</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>85537</v>
+        <v>85200</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1056123378655531</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.08255331422490655</v>
+        <v>0.08109442354220166</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1358034033066043</v>
+        <v>0.1352684511715168</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>55</v>
@@ -6694,19 +6694,19 @@
         <v>60020</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>46759</v>
+        <v>46096</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>76345</v>
+        <v>75372</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.08570868569520773</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.06677155175699889</v>
+        <v>0.06582484438909193</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1090202845951501</v>
+        <v>0.1076307321208524</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>112</v>
@@ -6715,19 +6715,19 @@
         <v>126541</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>104438</v>
+        <v>104138</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>150159</v>
+        <v>149608</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.09513364163340959</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.07851676419973574</v>
+        <v>0.07829120889631984</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1128900920737089</v>
+        <v>0.1124756114289919</v>
       </c>
     </row>
     <row r="43">
@@ -6822,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>8473</v>
+        <v>7853</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.0007911174264868012</v>
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.00291428856181574</v>
+        <v>0.002700906773662856</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>0</v>
@@ -6856,7 +6856,7 @@
         <v>0</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>7880</v>
+        <v>7776</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.0003801337771334893</v>
@@ -6865,7 +6865,7 @@
         <v>0</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.001302311885099186</v>
+        <v>0.001285008656701486</v>
       </c>
     </row>
     <row r="45">
@@ -6882,19 +6882,19 @@
         <v>2413461</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>2370553</v>
+        <v>2367440</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>2455331</v>
+        <v>2453716</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.8300754519090485</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.8153179547117188</v>
+        <v>0.8142470688756365</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.8444759212293198</v>
+        <v>0.8439205841079254</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>2520</v>
@@ -6903,19 +6903,19 @@
         <v>2717697</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>2676551</v>
+        <v>2678786</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>2754775</v>
+        <v>2755728</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.8645502345506777</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.8514609649876584</v>
+        <v>0.8521717958835268</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.876345430107483</v>
+        <v>0.8766486158263601</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>4797</v>
@@ -6924,19 +6924,19 @@
         <v>5131158</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>5071652</v>
+        <v>5070688</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>5186134</v>
+        <v>5185927</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.8479850207117974</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.8381508915980814</v>
+        <v>0.8379915249096342</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.8570704523925454</v>
+        <v>0.8570361684121811</v>
       </c>
     </row>
     <row r="46">
@@ -6953,19 +6953,19 @@
         <v>97393</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>77958</v>
+        <v>77920</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>120635</v>
+        <v>120520</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.03349708203040299</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.0268124558156302</v>
+        <v>0.02679931584645081</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.04149084177997497</v>
+        <v>0.0414509822226426</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>70</v>
@@ -6974,19 +6974,19 @@
         <v>80922</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>65001</v>
+        <v>60480</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>103588</v>
+        <v>102658</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.02574278967953221</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.02067790218671582</v>
+        <v>0.01923995652957128</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.03295324257673624</v>
+        <v>0.03265757630623586</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>154</v>
@@ -6995,19 +6995,19 @@
         <v>178315</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>152639</v>
+        <v>151997</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>209314</v>
+        <v>209980</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.02946874532359362</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.02522541662159056</v>
+        <v>0.02511923819665365</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.03459161030362384</v>
+        <v>0.03470167275567947</v>
       </c>
     </row>
     <row r="47">
@@ -7024,19 +7024,19 @@
         <v>394365</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>355894</v>
+        <v>356980</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>432958</v>
+        <v>436061</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1356363486340617</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1224048164998043</v>
+        <v>0.1227780857337424</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.148909875298396</v>
+        <v>0.1499770252856863</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>321</v>
@@ -7045,19 +7045,19 @@
         <v>344862</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>308144</v>
+        <v>310654</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>381180</v>
+        <v>380251</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1097069757697901</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.09802637778800402</v>
+        <v>0.09882475242319412</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1212606276521584</v>
+        <v>0.1209648159383093</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>687</v>
@@ -7066,19 +7066,19 @@
         <v>739227</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>691047</v>
+        <v>687767</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>791007</v>
+        <v>793048</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1221661001874755</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1142036816159075</v>
+        <v>0.1136616961338078</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1307232764566861</v>
+        <v>0.1310605563686676</v>
       </c>
     </row>
     <row r="48">
@@ -7417,7 +7417,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5022</v>
+        <v>5418</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004044745466368647</v>
@@ -7426,7 +7426,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02048116003289711</v>
+        <v>0.02209650699367892</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4945</v>
+        <v>4999</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002017780557427172</v>
@@ -7460,7 +7460,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0100590890785771</v>
+        <v>0.01016929511564101</v>
       </c>
     </row>
     <row r="5">
@@ -7477,19 +7477,19 @@
         <v>206973</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>194495</v>
+        <v>194452</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>218185</v>
+        <v>218447</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8440362347307194</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7931532582858479</v>
+        <v>0.7929755252229194</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8897583623498626</v>
+        <v>0.8908264691936039</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>195</v>
@@ -7498,19 +7498,19 @@
         <v>201542</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>188071</v>
+        <v>189509</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>212848</v>
+        <v>213485</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.818163567540074</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7634813855040966</v>
+        <v>0.7693180764650175</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8640639832816496</v>
+        <v>0.8666476651280348</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>382</v>
@@ -7519,19 +7519,19 @@
         <v>408514</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>391823</v>
+        <v>390465</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>424759</v>
+        <v>423801</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8310705267690655</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7971151815432723</v>
+        <v>0.7943521048329272</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8641207638030743</v>
+        <v>0.8621702345084947</v>
       </c>
     </row>
     <row r="6">
@@ -7548,19 +7548,19 @@
         <v>5656</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1973</v>
+        <v>1992</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12310</v>
+        <v>12088</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02306613156923457</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.008047329694059795</v>
+        <v>0.008122770709974116</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05020216813016136</v>
+        <v>0.04929664018308137</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>13</v>
@@ -7569,19 +7569,19 @@
         <v>12607</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6776</v>
+        <v>6797</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>20634</v>
+        <v>21843</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05117749681065056</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02750611623539897</v>
+        <v>0.02759363612097376</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08376299437229771</v>
+        <v>0.08867196271019942</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>18</v>
@@ -7590,19 +7590,19 @@
         <v>18263</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>11181</v>
+        <v>11464</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>28273</v>
+        <v>28553</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03715373024771071</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02274544626255885</v>
+        <v>0.02332263428359962</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05751805180924828</v>
+        <v>0.05808828804859605</v>
       </c>
     </row>
     <row r="7">
@@ -7619,19 +7619,19 @@
         <v>31597</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>21959</v>
+        <v>20985</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>43560</v>
+        <v>43322</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1288528882336774</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0895500899636316</v>
+        <v>0.08557676553887625</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1776382786555836</v>
+        <v>0.1766663344532163</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>31</v>
@@ -7640,19 +7640,19 @@
         <v>32186</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>22858</v>
+        <v>22649</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>44389</v>
+        <v>43690</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1306589356492754</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09279261496658658</v>
+        <v>0.09194329506382119</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1801989059744323</v>
+        <v>0.177362123023906</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>59</v>
@@ -7661,19 +7661,19 @@
         <v>63783</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>50014</v>
+        <v>50925</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>79888</v>
+        <v>80919</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1297579624257967</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1017466119633694</v>
+        <v>0.1036011874884465</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.162522675389579</v>
+        <v>0.1646193882836745</v>
       </c>
     </row>
     <row r="8">
@@ -7812,19 +7812,19 @@
         <v>340755</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>328457</v>
+        <v>328150</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>348891</v>
+        <v>348566</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9382920595276932</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.904428640721227</v>
+        <v>0.9035831445993855</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9606950602562253</v>
+        <v>0.9598012572423433</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>344</v>
@@ -7833,19 +7833,19 @@
         <v>364293</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>352698</v>
+        <v>352874</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>373831</v>
+        <v>373927</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9261844822094319</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8967043520659459</v>
+        <v>0.8971513213767567</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9504319034146914</v>
+        <v>0.950677994659719</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>666</v>
@@ -7854,19 +7854,19 @@
         <v>705048</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>688823</v>
+        <v>688636</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>717476</v>
+        <v>716837</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.931996905161335</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9105485347649022</v>
+        <v>0.9103013683742793</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9484246945138358</v>
+        <v>0.9475808794682522</v>
       </c>
     </row>
     <row r="11">
@@ -7886,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11699</v>
+        <v>9596</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.008067027475875061</v>
@@ -7895,7 +7895,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03221410388725524</v>
+        <v>0.02642283289150332</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>10</v>
@@ -7904,19 +7904,19 @@
         <v>10162</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5295</v>
+        <v>5016</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>18291</v>
+        <v>17536</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02583627577612648</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01346176703989029</v>
+        <v>0.01275189809693732</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04650208940774588</v>
+        <v>0.04458487158573194</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>12</v>
@@ -7925,19 +7925,19 @@
         <v>13092</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>6997</v>
+        <v>7128</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>21732</v>
+        <v>23368</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01730588328359461</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.009248956778696742</v>
+        <v>0.009421967522997734</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02872733417633654</v>
+        <v>0.03088993281316065</v>
       </c>
     </row>
     <row r="12">
@@ -7954,19 +7954,19 @@
         <v>19481</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12312</v>
+        <v>12400</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>31462</v>
+        <v>31672</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05364091299643169</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03390132731592838</v>
+        <v>0.0341440638819572</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08663337592446992</v>
+        <v>0.08721212549845526</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>18</v>
@@ -7975,19 +7975,19 @@
         <v>18872</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>11413</v>
+        <v>11485</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>28831</v>
+        <v>28982</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04797924201444152</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02901673061904866</v>
+        <v>0.0291997806992935</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07329940290650783</v>
+        <v>0.07368411088055485</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>36</v>
@@ -7996,19 +7996,19 @@
         <v>38352</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>27289</v>
+        <v>27356</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>53047</v>
+        <v>52344</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05069721155507038</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03607357402143792</v>
+        <v>0.03616178047550376</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07012283160962907</v>
+        <v>0.06919372373199992</v>
       </c>
     </row>
     <row r="13">
@@ -8147,19 +8147,19 @@
         <v>260909</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>250110</v>
+        <v>249442</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>270290</v>
+        <v>269851</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.8981168223169106</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8609433814204406</v>
+        <v>0.8586445083172138</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9304080037912086</v>
+        <v>0.9288969505157714</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>276</v>
@@ -8168,19 +8168,19 @@
         <v>280511</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>270995</v>
+        <v>270046</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>289441</v>
+        <v>288968</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.9114494484719425</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.8805301579664263</v>
+        <v>0.8774461052345175</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.9404652852627927</v>
+        <v>0.9389281307504307</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>547</v>
@@ -8189,19 +8189,19 @@
         <v>541420</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>527139</v>
+        <v>525892</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>554398</v>
+        <v>554181</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.9049754283192952</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.8811062092724358</v>
+        <v>0.8790212357657862</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.9266684488793746</v>
+        <v>0.9263060509103285</v>
       </c>
     </row>
     <row r="16">
@@ -8218,19 +8218,19 @@
         <v>6379</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2721</v>
+        <v>2675</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12751</v>
+        <v>12624</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02195893671378316</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009365185811113693</v>
+        <v>0.00920880612872543</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0438920973972505</v>
+        <v>0.04345385447159309</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -8242,7 +8242,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4582</v>
+        <v>4542</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.00292945713571445</v>
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01488857369619113</v>
+        <v>0.01475918994079104</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -8260,19 +8260,19 @@
         <v>7281</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3464</v>
+        <v>3531</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13631</v>
+        <v>13289</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01216973979647975</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005790707368025774</v>
+        <v>0.005902644319818998</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02278364012512673</v>
+        <v>0.02221305207608542</v>
       </c>
     </row>
     <row r="17">
@@ -8289,19 +8289,19 @@
         <v>23219</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>15311</v>
+        <v>15982</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>33445</v>
+        <v>33601</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0799242409693063</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05270569319274757</v>
+        <v>0.05501319145719624</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1151273328687147</v>
+        <v>0.1156639158337774</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>28</v>
@@ -8310,19 +8310,19 @@
         <v>26351</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>17770</v>
+        <v>17868</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>35805</v>
+        <v>36899</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08562109439234301</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05773891897371568</v>
+        <v>0.05805904601497557</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1163391804884538</v>
+        <v>0.119895361575295</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>53</v>
@@ -8331,19 +8331,19 @@
         <v>49570</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>37373</v>
+        <v>37575</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>63826</v>
+        <v>64536</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08285483188422506</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06246783960024372</v>
+        <v>0.06280691550266843</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1066845364314742</v>
+        <v>0.1078702468742139</v>
       </c>
     </row>
     <row r="18">
@@ -8438,7 +8438,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5235</v>
+        <v>6216</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003141703942751096</v>
@@ -8447,7 +8447,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01586261075932489</v>
+        <v>0.01883226594721835</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -8472,7 +8472,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>5198</v>
+        <v>5201</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.001527321169897576</v>
@@ -8481,7 +8481,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.00765672240038658</v>
+        <v>0.007660479810567993</v>
       </c>
     </row>
     <row r="20">
@@ -8498,19 +8498,19 @@
         <v>289979</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>276567</v>
+        <v>276419</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>300634</v>
+        <v>301405</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8786005230851983</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8379623340554094</v>
+        <v>0.8375147144939143</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9108811408082073</v>
+        <v>0.9132196598475246</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>285</v>
@@ -8519,19 +8519,19 @@
         <v>306917</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>292837</v>
+        <v>293176</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>318893</v>
+        <v>317962</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8797685481998027</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8394081020503132</v>
+        <v>0.8403812892585164</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9140966207148152</v>
+        <v>0.9114301317156359</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>561</v>
@@ -8540,19 +8540,19 @@
         <v>596896</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>578294</v>
+        <v>578760</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>614046</v>
+        <v>612544</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8792007195574433</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8517995083051634</v>
+        <v>0.8524860307450831</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9044611858630492</v>
+        <v>0.9022485506314122</v>
       </c>
     </row>
     <row r="21">
@@ -8569,19 +8569,19 @@
         <v>2822</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8091</v>
+        <v>7824</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.008549672463770986</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.002474616058753515</v>
+        <v>0.002492363813841921</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02451482388849279</v>
+        <v>0.0237049895795308</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>10</v>
@@ -8590,19 +8590,19 @@
         <v>12342</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>5888</v>
+        <v>6239</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>21581</v>
+        <v>22330</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03537938547977522</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01687672276749063</v>
+        <v>0.01788488423295041</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.06185992901280186</v>
+        <v>0.06400825757971533</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>13</v>
@@ -8611,19 +8611,19 @@
         <v>15164</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>8744</v>
+        <v>8365</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>27088</v>
+        <v>25739</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02233627593848057</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01287987692678123</v>
+        <v>0.01232117300224347</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0398989724250512</v>
+        <v>0.03791206986921621</v>
       </c>
     </row>
     <row r="22">
@@ -8640,19 +8640,19 @@
         <v>36209</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>25818</v>
+        <v>25852</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>48551</v>
+        <v>49935</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1097081005082796</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0782245133670523</v>
+        <v>0.07832731822473846</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1471025931227207</v>
+        <v>0.1512975586742652</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>28</v>
@@ -8661,19 +8661,19 @@
         <v>29602</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>20147</v>
+        <v>20642</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>42715</v>
+        <v>42297</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08485206632042212</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05775182403293702</v>
+        <v>0.05916987268530691</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1224403786569372</v>
+        <v>0.1212434163380957</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>62</v>
@@ -8682,19 +8682,19 @@
         <v>65810</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>51348</v>
+        <v>51303</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>83743</v>
+        <v>82348</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09693568333417851</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07563333609789377</v>
+        <v>0.07556747896413665</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1233502394877675</v>
+        <v>0.1212950238809519</v>
       </c>
     </row>
     <row r="23">
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4605</v>
+        <v>4962</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.008556468490205143</v>
@@ -8798,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03862939049581617</v>
+        <v>0.04161984996168268</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -8823,7 +8823,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>5709</v>
+        <v>5597</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.003853554277165977</v>
@@ -8832,7 +8832,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02156501774590867</v>
+        <v>0.02114466927319355</v>
       </c>
     </row>
     <row r="25">
@@ -8849,19 +8849,19 @@
         <v>107076</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>98912</v>
+        <v>100537</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>111909</v>
+        <v>112699</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.8981265026319442</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8296455359857604</v>
+        <v>0.8432767384711157</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.9386581960154883</v>
+        <v>0.945284364299147</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>132</v>
@@ -8870,19 +8870,19 @@
         <v>124995</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>116368</v>
+        <v>114710</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>132087</v>
+        <v>132090</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.8590707240610987</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.7997816689049603</v>
+        <v>0.788382667856885</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.9078175160542902</v>
+        <v>0.9078382661085773</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>237</v>
@@ -8891,19 +8891,19 @@
         <v>232071</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>221102</v>
+        <v>220756</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>241781</v>
+        <v>241448</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.876660172644006</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.8352252441793123</v>
+        <v>0.8339163389130357</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.9133398727869602</v>
+        <v>0.9120804997420241</v>
       </c>
     </row>
     <row r="26">
@@ -8923,7 +8923,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>5890</v>
+        <v>6814</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01603231723267245</v>
@@ -8932,7 +8932,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04940331900205146</v>
+        <v>0.05715573720512701</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -8944,7 +8944,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>6922</v>
+        <v>5997</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01332928658107537</v>
@@ -8953,7 +8953,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04757285060670629</v>
+        <v>0.04121574490441724</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4</v>
@@ -8962,19 +8962,19 @@
         <v>3851</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>905</v>
+        <v>1037</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>8959</v>
+        <v>9421</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01454664340774942</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.003419064773989286</v>
+        <v>0.003917940522119554</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03384444169270104</v>
+        <v>0.0355898017259739</v>
       </c>
     </row>
     <row r="27">
@@ -8991,19 +8991,19 @@
         <v>9214</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>5309</v>
+        <v>4440</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>16652</v>
+        <v>15941</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.07728471164517819</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.04453310891906931</v>
+        <v>0.03724242568598143</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1396717175035345</v>
+        <v>0.133704497338186</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>18</v>
@@ -9012,19 +9012,19 @@
         <v>18566</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>11943</v>
+        <v>11698</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>27370</v>
+        <v>28029</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1275999893578259</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.08207917969745651</v>
+        <v>0.08039565253183849</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1881107863790763</v>
+        <v>0.1926359217371943</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>28</v>
@@ -9033,19 +9033,19 @@
         <v>27780</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>18781</v>
+        <v>18971</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>39236</v>
+        <v>38226</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1049396296710787</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.07094715641179203</v>
+        <v>0.07166372334680308</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1482173981689194</v>
+        <v>0.1443988744542597</v>
       </c>
     </row>
     <row r="28">
@@ -9184,19 +9184,19 @@
         <v>210428</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>199191</v>
+        <v>201142</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>218108</v>
+        <v>218056</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9007479226599858</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8526463728087977</v>
+        <v>0.8609962819529809</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9336206145029171</v>
+        <v>0.9333972205112995</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>219</v>
@@ -9205,19 +9205,19 @@
         <v>225294</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>214578</v>
+        <v>215018</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>232857</v>
+        <v>233619</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9116168986263358</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8682554689298606</v>
+        <v>0.8700354305321565</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9422201138419937</v>
+        <v>0.945301993526896</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>426</v>
@@ -9226,19 +9226,19 @@
         <v>435723</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>421085</v>
+        <v>421898</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>447530</v>
+        <v>448373</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9063352643053495</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8758865946666354</v>
+        <v>0.8775781988518053</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.93089350219152</v>
+        <v>0.9326463301005752</v>
       </c>
     </row>
     <row r="31">
@@ -9268,19 +9268,19 @@
         <v>2978</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>8118</v>
+        <v>8864</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01204887337762636</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.003713264954443382</v>
+        <v>0.003731316828256282</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03284891634582613</v>
+        <v>0.03586664766516647</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>3</v>
@@ -9289,19 +9289,19 @@
         <v>2978</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>923</v>
+        <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>7201</v>
+        <v>7974</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.006193883601449692</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.001919038906878441</v>
+        <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01497833246454929</v>
+        <v>0.01658743455554285</v>
       </c>
     </row>
     <row r="32">
@@ -9318,19 +9318,19 @@
         <v>23187</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>15507</v>
+        <v>15559</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>34424</v>
+        <v>32473</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.09925207734001419</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.06637938549708287</v>
+        <v>0.06660277948870044</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1473536271912021</v>
+        <v>0.1390037180470191</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>18</v>
@@ -9339,19 +9339,19 @@
         <v>18865</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>11713</v>
+        <v>11533</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>28658</v>
+        <v>28741</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.07633422799603785</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.04739347690756316</v>
+        <v>0.04666616714854913</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1159607373556228</v>
+        <v>0.1162952924402697</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>41</v>
@@ -9360,19 +9360,19 @@
         <v>42052</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>30867</v>
+        <v>30716</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>57464</v>
+        <v>55873</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.08747085209320078</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.06420521830899947</v>
+        <v>0.06389068569801319</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1195281805012584</v>
+        <v>0.1162189027247877</v>
       </c>
     </row>
     <row r="33">
@@ -9511,19 +9511,19 @@
         <v>386539</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>370494</v>
+        <v>369524</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>399472</v>
+        <v>399201</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.8759900021878606</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.8396271514895703</v>
+        <v>0.8374302975376097</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.9052985993901298</v>
+        <v>0.904683592971514</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>405</v>
@@ -9532,19 +9532,19 @@
         <v>423784</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>407088</v>
+        <v>407136</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>438037</v>
+        <v>438534</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.8723787316427563</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.8380098248216441</v>
+        <v>0.8381069430129681</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.901718992938458</v>
+        <v>0.9027410891027914</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>741</v>
@@ -9553,19 +9553,19 @@
         <v>810323</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>786951</v>
+        <v>788025</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>830587</v>
+        <v>831975</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.8740976548128097</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.8488852080726015</v>
+        <v>0.8500439841998475</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.8959559573987519</v>
+        <v>0.8974529482877027</v>
       </c>
     </row>
     <row r="36">
@@ -9582,19 +9582,19 @@
         <v>17102</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>9778</v>
+        <v>10598</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>27721</v>
+        <v>27781</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.03875756453645913</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02215983899285175</v>
+        <v>0.02401690115247559</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.06282193321753968</v>
+        <v>0.06295792243805459</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>16</v>
@@ -9603,19 +9603,19 @@
         <v>17185</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>10561</v>
+        <v>10495</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>27312</v>
+        <v>27637</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.03537624628783315</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.02174043208359035</v>
+        <v>0.02160364509089389</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.0562238831347902</v>
+        <v>0.05689169188099005</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>31</v>
@@ -9624,19 +9624,19 @@
         <v>34287</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>24349</v>
+        <v>22820</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>48808</v>
+        <v>47043</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.03698571481429594</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02626541211526927</v>
+        <v>0.02461647908977529</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.05264894247562121</v>
+        <v>0.05074546911265359</v>
       </c>
     </row>
     <row r="37">
@@ -9653,19 +9653,19 @@
         <v>37618</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>26833</v>
+        <v>26669</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>51806</v>
+        <v>50930</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.08525243327568027</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.06080904831043651</v>
+        <v>0.06043917458951502</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1174044474030491</v>
+        <v>0.1154187475952088</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>39</v>
@@ -9674,19 +9674,19 @@
         <v>44811</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>32426</v>
+        <v>32733</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>60717</v>
+        <v>60397</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.09224502206941058</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.0667503960640423</v>
+        <v>0.06738312137249569</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1249879863856787</v>
+        <v>0.1243307645831022</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>73</v>
@@ -9695,19 +9695,19 @@
         <v>82429</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>65219</v>
+        <v>63800</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>102227</v>
+        <v>102881</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.08891663037289441</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.0703517683820825</v>
+        <v>0.06882076814790192</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.110272603532755</v>
+        <v>0.1109778862660706</v>
       </c>
     </row>
     <row r="38">
@@ -9815,7 +9815,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>7968</v>
+        <v>7529</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.001600550232352414</v>
@@ -9824,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.01152478472701294</v>
+        <v>0.01089017165757647</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>1</v>
@@ -9836,7 +9836,7 @@
         <v>0</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>6595</v>
+        <v>5518</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.000831554585194158</v>
@@ -9845,7 +9845,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.004956263821535089</v>
+        <v>0.004147108434152573</v>
       </c>
     </row>
     <row r="40">
@@ -9862,19 +9862,19 @@
         <v>558583</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>540896</v>
+        <v>541351</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>573837</v>
+        <v>573161</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.8736987689991261</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.8460344208179894</v>
+        <v>0.846745927404454</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.8975585219883113</v>
+        <v>0.8965014860303273</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>547</v>
@@ -9883,19 +9883,19 @@
         <v>595147</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>575943</v>
+        <v>576054</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>612285</v>
+        <v>614890</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.8608584164049052</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.8330806118905812</v>
+        <v>0.8332416454684635</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.8856480560834655</v>
+        <v>0.8894163759525955</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>1087</v>
@@ -9904,19 +9904,19 @@
         <v>1153729</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1128346</v>
+        <v>1123966</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>1180641</v>
+        <v>1178455</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.8670276543665407</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.8479519087039502</v>
+        <v>0.8446605911352495</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.8872519045854367</v>
+        <v>0.8856090531277716</v>
       </c>
     </row>
     <row r="41">
@@ -9933,19 +9933,19 @@
         <v>15202</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>8823</v>
+        <v>8240</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>25653</v>
+        <v>25798</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.02377807733452513</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.01380013868831049</v>
+        <v>0.01288834669431058</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.04012436765284808</v>
+        <v>0.04035195256926817</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>26</v>
@@ -9954,19 +9954,19 @@
         <v>30277</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>20155</v>
+        <v>20415</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>44036</v>
+        <v>44079</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.0437950959399888</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.02915392807615618</v>
+        <v>0.0295292108937544</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.06369645253636405</v>
+        <v>0.06375918338994536</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>39</v>
@@ -9975,19 +9975,19 @@
         <v>45479</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>32353</v>
+        <v>32755</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>62926</v>
+        <v>60758</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.03417777817916884</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.02431357798064671</v>
+        <v>0.02461509428026217</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.04728877153253007</v>
+        <v>0.04565960581092416</v>
       </c>
     </row>
     <row r="42">
@@ -10004,19 +10004,19 @@
         <v>65546</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>52126</v>
+        <v>51785</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>82565</v>
+        <v>81400</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1025231536663487</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.08153156685925389</v>
+        <v>0.08099875371103227</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1291425206387244</v>
+        <v>0.1273198710519273</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>61</v>
@@ -10025,19 +10025,19 @@
         <v>64810</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>50106</v>
+        <v>49070</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>79852</v>
+        <v>80628</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.09374593742275357</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.07247671683765156</v>
+        <v>0.07097826917333107</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1155029503342664</v>
+        <v>0.1166253384127793</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>123</v>
@@ -10046,19 +10046,19 @@
         <v>130357</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>108232</v>
+        <v>109334</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>152276</v>
+        <v>157266</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.09796301286909624</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.08133639212748205</v>
+        <v>0.08216458258467361</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1144355096860061</v>
+        <v>0.1181857037608256</v>
       </c>
     </row>
     <row r="43">
@@ -10150,19 +10150,19 @@
         <v>3049</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>8207</v>
+        <v>9156</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.001145175585165875</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.0003715121155432717</v>
+        <v>0.0003725601246544075</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.003082566783373739</v>
+        <v>0.003439194474973649</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>1</v>
@@ -10174,7 +10174,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>5548</v>
+        <v>5547</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.0003860815470046949</v>
@@ -10183,7 +10183,7 @@
         <v>0</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.001935913483988584</v>
+        <v>0.0019355251559518</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>4</v>
@@ -10192,19 +10192,19 @@
         <v>4155</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1023</v>
+        <v>1036</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>10062</v>
+        <v>9788</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.0007516452626314263</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.0001849929633643242</v>
+        <v>0.0001873592157219264</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.001819987798393782</v>
+        <v>0.00177054386329734</v>
       </c>
     </row>
     <row r="45">
@@ -10221,19 +10221,19 @@
         <v>2361244</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>2328159</v>
+        <v>2326574</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>2393810</v>
+        <v>2395429</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.8868968565281335</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.8744699177681656</v>
+        <v>0.8738746587513888</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.8991286895298636</v>
+        <v>0.8997371113589987</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>2403</v>
@@ -10242,19 +10242,19 @@
         <v>2522483</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>2484320</v>
+        <v>2484254</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>2557750</v>
+        <v>2556662</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.8801271183873269</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.8668114598415061</v>
+        <v>0.8667883953916248</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.8924323091204766</v>
+        <v>0.8920526111647166</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>4647</v>
@@ -10263,19 +10263,19 @@
         <v>4883727</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>4832401</v>
+        <v>4829285</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>4932727</v>
+        <v>4928809</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.8833872818244791</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.874103200186394</v>
+        <v>0.8735395263411934</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.8922505302309838</v>
+        <v>0.8915419251810831</v>
       </c>
     </row>
     <row r="46">
@@ -10292,19 +10292,19 @@
         <v>52003</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>38516</v>
+        <v>37084</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>68476</v>
+        <v>68053</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.01953245681585775</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.01446672977744418</v>
+        <v>0.01392893044591041</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.02572011394412571</v>
+        <v>0.02556109261291221</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>81</v>
@@ -10313,19 +10313,19 @@
         <v>88392</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>69757</v>
+        <v>69899</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>108297</v>
+        <v>109525</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.03084128432952099</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.02433903738277063</v>
+        <v>0.02438852907031301</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.03778624287883812</v>
+        <v>0.03821468786256535</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>128</v>
@@ -10334,19 +10334,19 @@
         <v>140395</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>118466</v>
+        <v>117755</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>165786</v>
+        <v>166702</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.0253951909636833</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.02142856094649084</v>
+        <v>0.0212999513472064</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.02998794887233685</v>
+        <v>0.03015378300855425</v>
       </c>
     </row>
     <row r="47">
@@ -10363,19 +10363,19 @@
         <v>246071</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>215228</v>
+        <v>215664</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>277505</v>
+        <v>276670</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.09242551107084278</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.08084100795740454</v>
+        <v>0.08100476969824062</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1042326568399832</v>
+        <v>0.1039187505203479</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>241</v>
@@ -10384,19 +10384,19 @@
         <v>254062</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>224632</v>
+        <v>225350</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>288616</v>
+        <v>287352</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.08864551573614735</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.07837693332024043</v>
+        <v>0.07862753789490379</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1007018485901219</v>
+        <v>0.1002607077504595</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>475</v>
@@ -10405,19 +10405,19 @@
         <v>500132</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>456909</v>
+        <v>458163</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>547978</v>
+        <v>541824</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.09046588194920614</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.08264752046429835</v>
+        <v>0.08287423002930101</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.09912041149812739</v>
+        <v>0.09800713205229507</v>
       </c>
     </row>
     <row r="48">
@@ -10800,19 +10800,19 @@
         <v>278840</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>266749</v>
+        <v>267396</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>286728</v>
+        <v>286286</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9266339188772524</v>
+        <v>0.9266339188772522</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8864542159509496</v>
+        <v>0.8886030429807933</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9528458560503237</v>
+        <v>0.9513800190959522</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>508</v>
@@ -10821,19 +10821,19 @@
         <v>297817</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>292739</v>
+        <v>292104</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>302005</v>
+        <v>301771</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9623639234133091</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9459558132596182</v>
+        <v>0.9439016701824917</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9758956757296979</v>
+        <v>0.9751399134823877</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>803</v>
@@ -10842,19 +10842,19 @@
         <v>576657</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>564525</v>
+        <v>563674</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>586864</v>
+        <v>586580</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9447490742750344</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9248729336437728</v>
+        <v>0.9234794068224054</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9614717831834265</v>
+        <v>0.9610058941645013</v>
       </c>
     </row>
     <row r="6">
@@ -10871,19 +10871,19 @@
         <v>3431</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>676</v>
+        <v>693</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9775</v>
+        <v>10581</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01140208879317268</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.002246669999527256</v>
+        <v>0.002303298772425358</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03248357707057677</v>
+        <v>0.03516253386138419</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -10892,19 +10892,19 @@
         <v>2467</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>955</v>
+        <v>945</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6122</v>
+        <v>5629</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.007971757771502034</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.00308661580416717</v>
+        <v>0.003054692481955324</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01978331220569372</v>
+        <v>0.0181896258287236</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>8</v>
@@ -10913,19 +10913,19 @@
         <v>5898</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2509</v>
+        <v>2530</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>12932</v>
+        <v>13149</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.009662906827475285</v>
+        <v>0.009662906827475287</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.004109894210814658</v>
+        <v>0.004144348763413481</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02118704593484614</v>
+        <v>0.02154180005400201</v>
       </c>
     </row>
     <row r="7">
@@ -10942,19 +10942,19 @@
         <v>18646</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11772</v>
+        <v>11280</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30756</v>
+        <v>29348</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06196399232957496</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03912102317917222</v>
+        <v>0.03748575541352495</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1022061152728638</v>
+        <v>0.09752729062923528</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>18</v>
@@ -10963,19 +10963,19 @@
         <v>9180</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5471</v>
+        <v>5545</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13704</v>
+        <v>14322</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02966431881518882</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01768007531801333</v>
+        <v>0.01791955766641437</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0442819779160609</v>
+        <v>0.04628149702369424</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>37</v>
@@ -10984,19 +10984,19 @@
         <v>27826</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>18793</v>
+        <v>19185</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>39006</v>
+        <v>38924</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04558801889749033</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03078869759290435</v>
+        <v>0.03143137965410919</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06390466954666868</v>
+        <v>0.06376965444395075</v>
       </c>
     </row>
     <row r="8">
@@ -11135,19 +11135,19 @@
         <v>475368</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>451427</v>
+        <v>454977</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>490768</v>
+        <v>492399</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9115908578843168</v>
+        <v>0.9115908578843165</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8656796850240468</v>
+        <v>0.8724876373483296</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9411226149694034</v>
+        <v>0.9442493060435988</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>661</v>
@@ -11156,19 +11156,19 @@
         <v>505863</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>495312</v>
+        <v>495864</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>513800</v>
+        <v>514178</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.9470279033624102</v>
+        <v>0.9470279033624101</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9272759681039278</v>
+        <v>0.9283090221769107</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9618879714373265</v>
+        <v>0.9625952226085254</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1008</v>
@@ -11177,19 +11177,19 @@
         <v>981231</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>959540</v>
+        <v>956310</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1000762</v>
+        <v>999737</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.9295223330268354</v>
+        <v>0.9295223330268356</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9089748991363169</v>
+        <v>0.9059152358294396</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9480246505814013</v>
+        <v>0.9470537668941895</v>
       </c>
     </row>
     <row r="11">
@@ -11206,19 +11206,19 @@
         <v>7847</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2748</v>
+        <v>2403</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>19202</v>
+        <v>18663</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.01504725671322451</v>
+        <v>0.0150472567132245</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.005270432758959922</v>
+        <v>0.004607283014915555</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03682296104072294</v>
+        <v>0.03578852384614963</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -11227,19 +11227,19 @@
         <v>2614</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>623</v>
+        <v>691</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6120</v>
+        <v>6184</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.004892788908171604</v>
+        <v>0.004892788908171603</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.001166535496654603</v>
+        <v>0.00129388302225461</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01145802475840246</v>
+        <v>0.01157727868328701</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>9</v>
@@ -11248,19 +11248,19 @@
         <v>10460</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>4554</v>
+        <v>4542</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>20271</v>
+        <v>21705</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.009909001405107006</v>
+        <v>0.009909001405107008</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.004313907029892475</v>
+        <v>0.004302751281329079</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0192031768552486</v>
+        <v>0.02056121925661396</v>
       </c>
     </row>
     <row r="12">
@@ -11277,19 +11277,19 @@
         <v>38256</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>24272</v>
+        <v>23388</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>61307</v>
+        <v>57591</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07336188540245883</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.046545638216523</v>
+        <v>0.04484985771207845</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1175646324141388</v>
+        <v>0.1104390820186364</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>35</v>
@@ -11298,19 +11298,19 @@
         <v>25682</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>18463</v>
+        <v>17449</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>36845</v>
+        <v>35377</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04807930772941824</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03456398294388917</v>
+        <v>0.03266711471609431</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06897771743882253</v>
+        <v>0.06622916975831382</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>57</v>
@@ -11319,19 +11319,19 @@
         <v>63938</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>45742</v>
+        <v>48158</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>86014</v>
+        <v>90004</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.06056866556805737</v>
+        <v>0.06056866556805738</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0433319173868081</v>
+        <v>0.04562059811698057</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08148135421970557</v>
+        <v>0.0852609820443265</v>
       </c>
     </row>
     <row r="13">
@@ -11470,19 +11470,19 @@
         <v>281830</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>272695</v>
+        <v>272076</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>289031</v>
+        <v>288979</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.9275988227712452</v>
+        <v>0.9275988227712454</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8975301432719293</v>
+        <v>0.895494946823484</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.951299583133037</v>
+        <v>0.9511273021216159</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>486</v>
@@ -11491,19 +11491,19 @@
         <v>321158</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>312498</v>
+        <v>312164</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>327204</v>
+        <v>327784</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.9387491483006756</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.9134338832877853</v>
+        <v>0.9124577691969018</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.9564220217043592</v>
+        <v>0.9581157249764488</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>806</v>
@@ -11512,19 +11512,19 @@
         <v>602989</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>591119</v>
+        <v>590364</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>614268</v>
+        <v>612633</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.9335044278524499</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.9151284954585615</v>
+        <v>0.9139596968296385</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.9509659436344147</v>
+        <v>0.9484345408814782</v>
       </c>
     </row>
     <row r="16">
@@ -11541,19 +11541,19 @@
         <v>5161</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1827</v>
+        <v>1710</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12844</v>
+        <v>11484</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01698781117463332</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00601385345890178</v>
+        <v>0.005627471943777852</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0422728093098077</v>
+        <v>0.03779708361780611</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -11562,19 +11562,19 @@
         <v>4652</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2312</v>
+        <v>1874</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9375</v>
+        <v>9760</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01359883443008789</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006758813913146655</v>
+        <v>0.00547685752165152</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02740410375657696</v>
+        <v>0.02852910323231129</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -11583,19 +11583,19 @@
         <v>9814</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4972</v>
+        <v>5196</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>16840</v>
+        <v>18123</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01519288974118757</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007697310665776736</v>
+        <v>0.00804404441383972</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02607011703871592</v>
+        <v>0.0280570763708595</v>
       </c>
     </row>
     <row r="17">
@@ -11612,19 +11612,19 @@
         <v>16836</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11015</v>
+        <v>11256</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>24949</v>
+        <v>25726</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.05541336605412135</v>
+        <v>0.05541336605412137</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03625476414034155</v>
+        <v>0.03704715007980142</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08211708837428112</v>
+        <v>0.08467278279545337</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>25</v>
@@ -11633,19 +11633,19 @@
         <v>16302</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>10826</v>
+        <v>10502</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>24083</v>
+        <v>24310</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04765201726923649</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0316432660280391</v>
+        <v>0.03069732604241902</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07039542336006706</v>
+        <v>0.07105883493255724</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>48</v>
@@ -11654,19 +11654,19 @@
         <v>33139</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>23524</v>
+        <v>23935</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>43034</v>
+        <v>43680</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05130268240636249</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03641772516376308</v>
+        <v>0.03705478975830544</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06662273590419436</v>
+        <v>0.06762179203196096</v>
       </c>
     </row>
     <row r="18">
@@ -11805,19 +11805,19 @@
         <v>349234</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>331601</v>
+        <v>332807</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>357832</v>
+        <v>359489</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9419966837193651</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8944354978334778</v>
+        <v>0.8976890664230782</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9651892990362971</v>
+        <v>0.9696590844193431</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>573</v>
@@ -11826,19 +11826,19 @@
         <v>407012</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>400562</v>
+        <v>400664</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>411652</v>
+        <v>411808</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9699694921986832</v>
+        <v>0.9699694921986831</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9545994566295084</v>
+        <v>0.9548418859890809</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9810283121833819</v>
+        <v>0.9814005826266597</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>845</v>
@@ -11847,19 +11847,19 @@
         <v>756246</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>740040</v>
+        <v>740436</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>767279</v>
+        <v>767848</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.956848001545477</v>
+        <v>0.9568480015454769</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9363432215675918</v>
+        <v>0.9368446000708485</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9708082583762871</v>
+        <v>0.9715275074337044</v>
       </c>
     </row>
     <row r="21">
@@ -11876,19 +11876,19 @@
         <v>8213</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2849</v>
+        <v>2858</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>18291</v>
+        <v>19036</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02215291664186242</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.007684219299621363</v>
+        <v>0.007708639258104968</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04933768225430015</v>
+        <v>0.05134739818394705</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>3</v>
@@ -11897,19 +11897,19 @@
         <v>2021</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>5945</v>
+        <v>5942</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.00481579124006127</v>
+        <v>0.004815791240061269</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.001021769484675773</v>
+        <v>0.001013285302677898</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01416898575288873</v>
+        <v>0.01416071045805628</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>9</v>
@@ -11918,19 +11918,19 @@
         <v>10234</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>4746</v>
+        <v>4531</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>20280</v>
+        <v>21318</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01294829352639384</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.006005395123185655</v>
+        <v>0.005732916478645639</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02565889690282009</v>
+        <v>0.02697310154066315</v>
       </c>
     </row>
     <row r="22">
@@ -11947,19 +11947,19 @@
         <v>13291</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6387</v>
+        <v>5988</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>28175</v>
+        <v>29408</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03585039963877253</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0172283238632065</v>
+        <v>0.01615246872493434</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07599758213432375</v>
+        <v>0.07932337217441837</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>18</v>
@@ -11968,19 +11968,19 @@
         <v>10580</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6512</v>
+        <v>6026</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>16993</v>
+        <v>16196</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.02521471656125554</v>
+        <v>0.02521471656125553</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01551977337491398</v>
+        <v>0.01436131728473092</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04049654154034842</v>
+        <v>0.0385966846447524</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>28</v>
@@ -11989,19 +11989,19 @@
         <v>23872</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>15709</v>
+        <v>15438</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>37852</v>
+        <v>38467</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03020370492812918</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01987551907293256</v>
+        <v>0.01953296621684331</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04789234284012604</v>
+        <v>0.04867097728222675</v>
       </c>
     </row>
     <row r="23">
@@ -12140,19 +12140,19 @@
         <v>173393</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>166027</v>
+        <v>166038</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>178855</v>
+        <v>178525</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.9159731893481976</v>
+        <v>0.9159731893481974</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8770611416778186</v>
+        <v>0.8771189661828013</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.944826403958122</v>
+        <v>0.9430851506625559</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>443</v>
@@ -12161,19 +12161,19 @@
         <v>205165</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>199461</v>
+        <v>199866</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>209301</v>
+        <v>209332</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.9334442475881721</v>
+        <v>0.9334442475881722</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.9074938199596558</v>
+        <v>0.9093378653531518</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.9522639899994677</v>
+        <v>0.9524065203352402</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>682</v>
@@ -12182,19 +12182,19 @@
         <v>378558</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>369407</v>
+        <v>370154</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>386193</v>
+        <v>385514</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.9253598715752146</v>
+        <v>0.9253598715752144</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.9029895950278108</v>
+        <v>0.9048156209986822</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.9440221137018836</v>
+        <v>0.9423624323103732</v>
       </c>
     </row>
     <row r="26">
@@ -12214,7 +12214,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3604</v>
+        <v>3565</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.003847359987281101</v>
@@ -12223,7 +12223,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01903903439923687</v>
+        <v>0.01883081196552237</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -12235,7 +12235,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2415</v>
+        <v>2589</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.003361528539615721</v>
@@ -12244,7 +12244,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01098883681976417</v>
+        <v>0.01177712628643608</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3</v>
@@ -12253,19 +12253,19 @@
         <v>1467</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4340</v>
+        <v>4440</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.003586337137234607</v>
+        <v>0.003586337137234606</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0008448091663935492</v>
+        <v>0.0008398631772961215</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01060979040898425</v>
+        <v>0.01085222045812322</v>
       </c>
     </row>
     <row r="27">
@@ -12282,19 +12282,19 @@
         <v>15178</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>9792</v>
+        <v>10171</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>21893</v>
+        <v>22323</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.08017945066452138</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.05172656260436592</v>
+        <v>0.05373177279995073</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1156508975891047</v>
+        <v>0.1179235337273174</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>32</v>
@@ -12303,19 +12303,19 @@
         <v>13890</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>9775</v>
+        <v>9837</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>19447</v>
+        <v>19307</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.06319422387221207</v>
+        <v>0.06319422387221206</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.04447395345323719</v>
+        <v>0.04475729777665253</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.08847742818530666</v>
+        <v>0.08784236263713324</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>55</v>
@@ -12324,19 +12324,19 @@
         <v>29068</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>22070</v>
+        <v>22259</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>38208</v>
+        <v>37777</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.07105379128755103</v>
+        <v>0.071053791287551</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.05394808053003037</v>
+        <v>0.05441016513079686</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.09339628292809744</v>
+        <v>0.09234224949260784</v>
       </c>
     </row>
     <row r="28">
@@ -12475,19 +12475,19 @@
         <v>232252</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>224784</v>
+        <v>224170</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>237865</v>
+        <v>237645</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.9319922313482822</v>
+        <v>0.9319922313482824</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9020242757082376</v>
+        <v>0.8995598098946701</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9545154106442535</v>
+        <v>0.9536332155106766</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>407</v>
@@ -12496,19 +12496,19 @@
         <v>234237</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>226995</v>
+        <v>226359</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>239766</v>
+        <v>239409</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9288760054713024</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.9001564292409584</v>
+        <v>0.8976330155769046</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.950797731076886</v>
+        <v>0.9493827616321548</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>724</v>
@@ -12517,19 +12517,19 @@
         <v>466490</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>455211</v>
+        <v>456366</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>474273</v>
+        <v>475443</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9304248805568591</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9079283281731018</v>
+        <v>0.9102332062356201</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9459481955486527</v>
+        <v>0.9482826166298756</v>
       </c>
     </row>
     <row r="31">
@@ -12546,19 +12546,19 @@
         <v>2514</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>6661</v>
+        <v>6725</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01008969540157427</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.002974898359363828</v>
+        <v>0.002964885749902734</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.026728163054017</v>
+        <v>0.02698652624889094</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>5</v>
@@ -12567,19 +12567,19 @@
         <v>2409</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>833</v>
+        <v>949</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>5638</v>
+        <v>5604</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.009553489755254049</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.003302847622342127</v>
+        <v>0.003765060618757345</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02235805933447388</v>
+        <v>0.02222457999999727</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>8</v>
@@ -12588,19 +12588,19 @@
         <v>4923</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2273</v>
+        <v>2192</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>10371</v>
+        <v>9822</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.009820003030962173</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.004532581746746856</v>
+        <v>0.004371913390148797</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02068527343315238</v>
+        <v>0.01959076045845595</v>
       </c>
     </row>
     <row r="32">
@@ -12617,19 +12617,19 @@
         <v>14433</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>9046</v>
+        <v>9657</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>21123</v>
+        <v>21394</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.05791807325014349</v>
+        <v>0.0579180732501435</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.03630107441873682</v>
+        <v>0.0387517064980608</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.08476194229640238</v>
+        <v>0.0858503472133976</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>29</v>
@@ -12638,19 +12638,19 @@
         <v>15526</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>10569</v>
+        <v>10592</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>22972</v>
+        <v>23224</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.06157050477344365</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0419116152064804</v>
+        <v>0.04200286096810683</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.09109477605623398</v>
+        <v>0.09209597435762806</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>53</v>
@@ -12659,19 +12659,19 @@
         <v>29960</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>22654</v>
+        <v>22249</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>40409</v>
+        <v>39437</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.05975511641217858</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.04518352187770994</v>
+        <v>0.04437671675249381</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.08059685946559929</v>
+        <v>0.07865833291706419</v>
       </c>
     </row>
     <row r="33">
@@ -12810,19 +12810,19 @@
         <v>618131</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>596707</v>
+        <v>596945</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>635969</v>
+        <v>636659</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.8968613606580548</v>
+        <v>0.8968613606580547</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.865776820300892</v>
+        <v>0.8661221012191915</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.9227422424109196</v>
+        <v>0.9237435086713325</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>846</v>
@@ -12831,19 +12831,19 @@
         <v>676486</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>661033</v>
+        <v>656281</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>690471</v>
+        <v>688365</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.9141536253928106</v>
+        <v>0.9141536253928108</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.893272121436088</v>
+        <v>0.8868502533958919</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.9330520091053088</v>
+        <v>0.9302062886734173</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1365</v>
@@ -12852,19 +12852,19 @@
         <v>1294618</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1269136</v>
+        <v>1265259</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1316956</v>
+        <v>1318467</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.9058147897309464</v>
+        <v>0.9058147897309461</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.8879859191889001</v>
+        <v>0.8852735128396313</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.9214447391392535</v>
+        <v>0.9225016465351745</v>
       </c>
     </row>
     <row r="36">
@@ -12881,19 +12881,19 @@
         <v>26023</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>16493</v>
+        <v>16717</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>39076</v>
+        <v>41123</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.03775702234204312</v>
+        <v>0.03775702234204311</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02393006307339281</v>
+        <v>0.02425498852875734</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.0566957940780422</v>
+        <v>0.05966573872809979</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>28</v>
@@ -12902,19 +12902,19 @@
         <v>25441</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>16421</v>
+        <v>16684</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>36986</v>
+        <v>40154</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.03437979227251861</v>
+        <v>0.0343797922725186</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.02219035827597486</v>
+        <v>0.0225449505495869</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.04998039685587351</v>
+        <v>0.05426156575365348</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>50</v>
@@ -12923,19 +12923,19 @@
         <v>51464</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>37887</v>
+        <v>37754</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>70148</v>
+        <v>69765</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.03600839135852889</v>
+        <v>0.03600839135852887</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.0265085781457992</v>
+        <v>0.02641552814860972</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.04908091736438892</v>
+        <v>0.04881296569932907</v>
       </c>
     </row>
     <row r="37">
@@ -12952,19 +12952,19 @@
         <v>45062</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>29837</v>
+        <v>29675</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>64894</v>
+        <v>64855</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.06538161699990219</v>
+        <v>0.06538161699990218</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.04329086540645561</v>
+        <v>0.0430567128512008</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.09415605333115198</v>
+        <v>0.09409925323549689</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>46</v>
@@ -12973,19 +12973,19 @@
         <v>38086</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>28376</v>
+        <v>28278</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>51757</v>
+        <v>51307</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.05146658233467078</v>
+        <v>0.05146658233467077</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.03834562618892076</v>
+        <v>0.03821314254739126</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.0699411683977946</v>
+        <v>0.06933276574605614</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>80</v>
@@ -12994,19 +12994,19 @@
         <v>83148</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>65675</v>
+        <v>64785</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>107910</v>
+        <v>108999</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.05817681891052473</v>
+        <v>0.05817681891052472</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.04595136412142439</v>
+        <v>0.04532838189056772</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.07550205952878307</v>
+        <v>0.07626413682123999</v>
       </c>
     </row>
     <row r="38">
@@ -13145,19 +13145,19 @@
         <v>635284</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>614770</v>
+        <v>613832</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>656208</v>
+        <v>659388</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.8246354937723629</v>
+        <v>0.8246354937723631</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.7980077265665712</v>
+        <v>0.7967904156679485</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.8517971356442011</v>
+        <v>0.8559248886076644</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>925</v>
@@ -13166,19 +13166,19 @@
         <v>724378</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>706819</v>
+        <v>707455</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>737582</v>
+        <v>738231</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.8930785101039951</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.8714307152229104</v>
+        <v>0.8722146092858554</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.9093579261864905</v>
+        <v>0.91015792056586</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>1529</v>
@@ -13187,19 +13187,19 @@
         <v>1359661</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1330997</v>
+        <v>1331809</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>1385796</v>
+        <v>1384045</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.8597381594802723</v>
+        <v>0.8597381594802721</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.8416134026541011</v>
+        <v>0.8421268802866365</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.8762633760128291</v>
+        <v>0.8751565657191187</v>
       </c>
     </row>
     <row r="41">
@@ -13216,19 +13216,19 @@
         <v>7620</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>3083</v>
+        <v>3358</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>14363</v>
+        <v>13842</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.00989136995988669</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.004001838230775111</v>
+        <v>0.004358350026486171</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01864458981121605</v>
+        <v>0.01796806234152748</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>7</v>
@@ -13237,19 +13237,19 @@
         <v>4682</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1958</v>
+        <v>2053</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>9528</v>
+        <v>8912</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.00577228015951311</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.002414459489606284</v>
+        <v>0.002530992431013231</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01174706848864458</v>
+        <v>0.0109880848197349</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>15</v>
@@ -13258,19 +13258,19 @@
         <v>12302</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>7605</v>
+        <v>7010</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>21299</v>
+        <v>20155</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.00777879456457135</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.004808713284435996</v>
+        <v>0.004432489700231212</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01346750908505239</v>
+        <v>0.01274454244875036</v>
       </c>
     </row>
     <row r="42">
@@ -13287,19 +13287,19 @@
         <v>127477</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>107926</v>
+        <v>104976</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>147848</v>
+        <v>149319</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1654731362677502</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1400945168167087</v>
+        <v>0.1362646470472103</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.191915363974327</v>
+        <v>0.1938245484690111</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>110</v>
@@ -13308,19 +13308,19 @@
         <v>82042</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>68261</v>
+        <v>67822</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>98305</v>
+        <v>98313</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1011492097364918</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.08415873661140999</v>
+        <v>0.08361740463420839</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1211990547350959</v>
+        <v>0.1212091109775566</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>241</v>
@@ -13329,19 +13329,19 @@
         <v>209520</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>182686</v>
+        <v>185699</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>235186</v>
+        <v>236220</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1324830459551565</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1155154904550101</v>
+        <v>0.1174206265117663</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.148712004157714</v>
+        <v>0.1493661428920684</v>
       </c>
     </row>
     <row r="43">
@@ -13480,19 +13480,19 @@
         <v>3044333</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>3003424</v>
+        <v>2999706</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>3081349</v>
+        <v>3083496</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.8966974169554189</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.8846478622459003</v>
+        <v>0.8835528254480812</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.9076006006381915</v>
+        <v>0.9082327995443491</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>4849</v>
@@ -13501,19 +13501,19 @@
         <v>3372115</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>3344014</v>
+        <v>3342692</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>3400267</v>
+        <v>3399261</v>
       </c>
       <c r="N45" s="6" t="n">
-        <v>0.9293594864795446</v>
+        <v>0.9293594864795447</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.9216149132423106</v>
+        <v>0.921250544087879</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.9371181850682632</v>
+        <v>0.9368409226625601</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>7762</v>
@@ -13522,19 +13522,19 @@
         <v>6416447</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>6365794</v>
+        <v>6365685</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>6464171</v>
+        <v>6460582</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.9135711056431931</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.9063591424265263</v>
+        <v>0.906343601330422</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.9203659647081708</v>
+        <v>0.9198550251786399</v>
       </c>
     </row>
     <row r="46">
@@ -13551,19 +13551,19 @@
         <v>61538</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>46014</v>
+        <v>46925</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>81378</v>
+        <v>83164</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.0181256876064581</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.01355336056525676</v>
+        <v>0.01382147955426248</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.02396952694630638</v>
+        <v>0.02449579462345478</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>61</v>
@@ -13572,19 +13572,19 @@
         <v>45025</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>34651</v>
+        <v>34725</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>60901</v>
+        <v>60076</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.01240894696513624</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.00954995029455508</v>
+        <v>0.00957013991458444</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.01678437246680657</v>
+        <v>0.01655715705185064</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>114</v>
@@ -13593,19 +13593,19 @@
         <v>106563</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>87251</v>
+        <v>87012</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>129730</v>
+        <v>132515</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.01517233825365116</v>
+        <v>0.01517233825365115</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.01242280826254858</v>
+        <v>0.01238875762261124</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01847084553632303</v>
+        <v>0.01886749579773644</v>
       </c>
     </row>
     <row r="47">
@@ -13622,19 +13622,19 @@
         <v>289180</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>254552</v>
+        <v>255592</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>326879</v>
+        <v>331488</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>0.08517689543812298</v>
+        <v>0.08517689543812297</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.07497753841882361</v>
+        <v>0.07528385090634038</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.09628113875794435</v>
+        <v>0.09763871018904573</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>313</v>
@@ -13643,19 +13643,19 @@
         <v>211289</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>184996</v>
+        <v>187799</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>236010</v>
+        <v>238049</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.05823156655531921</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.05098521046769</v>
+        <v>0.05175778008272439</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.06504460680474894</v>
+        <v>0.06560671309336552</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>599</v>
@@ -13664,19 +13664,19 @@
         <v>500469</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>454688</v>
+        <v>462586</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>544156</v>
+        <v>549797</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.0712565561031557</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.06473826122025185</v>
+        <v>0.0658628525036581</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.07747675101597562</v>
+        <v>0.07827982737484671</v>
       </c>
     </row>
     <row r="48">
